--- a/Jogos_da_Semana_FlashScore_2024-10-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-26.xlsx
@@ -765,22 +765,22 @@
         <v>3.6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O2" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R2" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S2" t="n">
         <v>1.4</v>
@@ -1323,10 +1323,10 @@
         <v>3.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="R5" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S5" t="n">
         <v>1.4</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD5"/>
+  <dimension ref="A1:BD6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -676,37 +676,37 @@
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_3-3_HT</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_0-1_HT</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-2_HT</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-2_HT</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-3_HT</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-3_HT</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-3_HT</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_3-3_HT</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>M5w5Vo6B</t>
+          <t>Yy9pYSf5</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,110 +728,110 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>01:50</t>
+          <t>03:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>JAPAN - J2 LEAGUE</t>
+          <t>AUSTRALIA - A-LEAGUE</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Iwaki</t>
+          <t>Adelaide United</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Mito</t>
+          <t>Central Coast Mariners</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H2" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="I2" t="n">
         <v>3.1</v>
       </c>
       <c r="J2" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K2" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L2" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="O2" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="P2" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.93</v>
+        <v>1.57</v>
       </c>
       <c r="R2" t="n">
-        <v>1.93</v>
+        <v>2.38</v>
       </c>
       <c r="S2" t="n">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="T2" t="n">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U2" t="n">
-        <v>1.73</v>
+        <v>1.5</v>
       </c>
       <c r="V2" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="W2" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="X2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z2" t="n">
         <v>21</v>
       </c>
       <c r="AA2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI2" t="n">
         <v>19</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>17</v>
       </c>
       <c r="AJ2" t="n">
         <v>12</v>
@@ -840,67 +840,67 @@
         <v>34</v>
       </c>
       <c r="AL2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM2" t="n">
         <v>23</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AN2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ2" t="n">
         <v>34</v>
       </c>
-      <c r="AN2" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP2" t="n">
+      <c r="AR2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>301</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ2" t="n">
         <v>21</v>
       </c>
-      <c r="AQ2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR2" t="n">
+      <c r="BA2" t="n">
         <v>51</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="BB2" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>101</v>
+      </c>
+      <c r="BD2" t="n">
         <v>151</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0dx9U5LH</t>
+          <t>M5w5Vo6B</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,7 +910,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>01:50</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -920,85 +920,85 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Fujieda MYFC</t>
+          <t>Iwaki</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Chiba</t>
+          <t>Mito</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="H3" t="n">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="I3" t="n">
-        <v>1.67</v>
+        <v>3.1</v>
       </c>
       <c r="J3" t="n">
-        <v>4.5</v>
+        <v>2.88</v>
       </c>
       <c r="K3" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L3" t="n">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O3" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.62</v>
+        <v>1.93</v>
       </c>
       <c r="R3" t="n">
-        <v>2.25</v>
+        <v>1.93</v>
       </c>
       <c r="S3" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="T3" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U3" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="V3" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="W3" t="n">
-        <v>17</v>
+        <v>8.5</v>
       </c>
       <c r="X3" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB3" t="n">
         <v>26</v>
       </c>
-      <c r="Y3" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>34</v>
-      </c>
       <c r="AC3" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AD3" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AE3" t="n">
         <v>13</v>
@@ -1007,58 +1007,58 @@
         <v>41</v>
       </c>
       <c r="AG3" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI3" t="n">
-        <v>9.5</v>
+        <v>17</v>
       </c>
       <c r="AJ3" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AK3" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="AL3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO3" t="n">
         <v>12</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AP3" t="n">
         <v>21</v>
       </c>
-      <c r="AN3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>26</v>
-      </c>
       <c r="AQ3" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AR3" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS3" t="n">
         <v>151</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="AU3" t="n">
         <v>7.5</v>
       </c>
       <c r="AV3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="AX3" t="n">
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="AY3" t="n">
         <v>17</v>
@@ -1067,13 +1067,13 @@
         <v>26</v>
       </c>
       <c r="BA3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB3" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BC3" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="BD3" t="n">
         <v>51</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ShVMjpwA</t>
+          <t>0dx9U5LH</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,95 +1092,95 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>JAPAN - J2 LEAGUE</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Puebla</t>
+          <t>Fujieda MYFC</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Guadalajara Chivas</t>
+          <t>Chiba</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="H4" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N4" t="n">
+        <v>15</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T4" t="n">
         <v>3.4</v>
       </c>
-      <c r="I4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="U4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V4" t="n">
         <v>2.2</v>
       </c>
-      <c r="L4" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N4" t="n">
-        <v>11</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T4" t="n">
-        <v>3</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2.05</v>
-      </c>
       <c r="W4" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="X4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z4" t="n">
         <v>41</v>
       </c>
       <c r="AA4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB4" t="n">
         <v>34</v>
       </c>
       <c r="AC4" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AE4" t="n">
         <v>13</v>
@@ -1189,10 +1189,10 @@
         <v>41</v>
       </c>
       <c r="AG4" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI4" t="n">
         <v>9.5</v>
@@ -1201,16 +1201,16 @@
         <v>8.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN4" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AO4" t="n">
         <v>21</v>
@@ -1228,43 +1228,43 @@
         <v>151</v>
       </c>
       <c r="AT4" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="AU4" t="n">
         <v>7.5</v>
       </c>
       <c r="AV4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW4" t="n">
         <v>51</v>
       </c>
-      <c r="AW4" t="n">
+      <c r="AX4" t="n">
         <v>4</v>
       </c>
-      <c r="AX4" t="n">
-        <v>10</v>
-      </c>
       <c r="AY4" t="n">
-        <v>21</v>
+        <v>8.5</v>
       </c>
       <c r="AZ4" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="BA4" t="n">
+        <v>26</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>41</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>101</v>
+      </c>
+      <c r="BD4" t="n">
         <v>51</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>501</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>vyBY8xUN</t>
+          <t>ShVMjpwA</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,41 +1274,41 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>SOUTH KOREA - K LEAGUE 1</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Gangwon</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Gimcheon Sangmu</t>
+          <t>Guadalajara Chivas</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="H5" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>4.33</v>
       </c>
       <c r="K5" t="n">
         <v>2.2</v>
       </c>
       <c r="L5" t="n">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
@@ -1323,40 +1323,40 @@
         <v>3.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R5" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S5" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T5" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U5" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V5" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W5" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="X5" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="Z5" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AA5" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AB5" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AC5" t="n">
         <v>11</v>
@@ -1374,43 +1374,43 @@
         <v>201</v>
       </c>
       <c r="AH5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL5" t="n">
         <v>15</v>
       </c>
-      <c r="AJ5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL5" t="n">
+      <c r="AM5" t="n">
         <v>23</v>
       </c>
-      <c r="AM5" t="n">
-        <v>29</v>
-      </c>
       <c r="AN5" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AP5" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AQ5" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AR5" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS5" t="n">
         <v>151</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU5" t="n">
         <v>7.5</v>
@@ -1419,27 +1419,209 @@
         <v>51</v>
       </c>
       <c r="AW5" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>34</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>vyBY8xUN</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>26/10/2024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SOUTH KOREA - K LEAGUE 1</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Gangwon</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Gimcheon Sangmu</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N6" t="n">
+        <v>10</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2</v>
+      </c>
+      <c r="W6" t="n">
+        <v>8</v>
+      </c>
+      <c r="X6" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX6" t="n">
         <v>5</v>
       </c>
-      <c r="AX5" t="n">
+      <c r="AY6" t="n">
         <v>17</v>
       </c>
-      <c r="AY5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ5" t="n">
+      <c r="AZ6" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA6" t="n">
         <v>51</v>
       </c>
-      <c r="BA5" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB5" t="n">
+      <c r="BB6" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC6" t="n">
         <v>151</v>
       </c>
-      <c r="BC5" t="n">
-        <v>501</v>
-      </c>
-      <c r="BD5" t="n">
+      <c r="BD6" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-26.xlsx
@@ -789,13 +789,13 @@
         <v>3.5</v>
       </c>
       <c r="U2" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="V2" t="n">
         <v>2.5</v>
       </c>
       <c r="W2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X2" t="n">
         <v>13</v>
@@ -929,40 +929,40 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="H3" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="J3" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K3" t="n">
         <v>2.2</v>
       </c>
       <c r="L3" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N3" t="n">
         <v>11</v>
       </c>
       <c r="O3" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P3" t="n">
         <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R3" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S3" t="n">
         <v>1.4</v>
@@ -971,7 +971,7 @@
         <v>2.75</v>
       </c>
       <c r="U3" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="V3" t="n">
         <v>2</v>
@@ -983,13 +983,13 @@
         <v>11</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z3" t="n">
         <v>21</v>
       </c>
       <c r="AA3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB3" t="n">
         <v>26</v>
@@ -1010,7 +1010,7 @@
         <v>201</v>
       </c>
       <c r="AH3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI3" t="n">
         <v>17</v>
@@ -1022,7 +1022,7 @@
         <v>34</v>
       </c>
       <c r="AL3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM3" t="n">
         <v>34</v>
@@ -1058,7 +1058,7 @@
         <v>51</v>
       </c>
       <c r="AX3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AY3" t="n">
         <v>17</v>
@@ -1070,7 +1070,7 @@
         <v>51</v>
       </c>
       <c r="BB3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BC3" t="n">
         <v>151</v>
@@ -1111,79 +1111,79 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4.33</v>
+        <v>5.25</v>
       </c>
       <c r="H4" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="I4" t="n">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="J4" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="K4" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L4" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="M4" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O4" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="P4" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R4" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S4" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U4" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="V4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W4" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="X4" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="Y4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Z4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA4" t="n">
         <v>41</v>
       </c>
-      <c r="AA4" t="n">
-        <v>34</v>
-      </c>
       <c r="AB4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC4" t="n">
         <v>15</v>
       </c>
       <c r="AD4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF4" t="n">
         <v>41</v>
@@ -1195,31 +1195,31 @@
         <v>9</v>
       </c>
       <c r="AI4" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AJ4" t="n">
         <v>8.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AL4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM4" t="n">
         <v>21</v>
       </c>
       <c r="AN4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AO4" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AP4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR4" t="n">
         <v>81</v>
@@ -1228,10 +1228,10 @@
         <v>151</v>
       </c>
       <c r="AT4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV4" t="n">
         <v>41</v>
@@ -1240,16 +1240,16 @@
         <v>51</v>
       </c>
       <c r="AX4" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AY4" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AZ4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BA4" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="BB4" t="n">
         <v>41</v>
@@ -1493,10 +1493,10 @@
         <v>3.6</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O6" t="n">
         <v>1.29</v>
@@ -1505,10 +1505,10 @@
         <v>3.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R6" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S6" t="n">
         <v>1.4</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD6"/>
+  <dimension ref="A1:BD7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,124 +747,124 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="H2" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="I2" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="J2" t="n">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="K2" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L2" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="O2" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="R2" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="S2" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T2" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U2" t="n">
-        <v>1.47</v>
+        <v>1.41</v>
       </c>
       <c r="V2" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="W2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y2" t="n">
         <v>9</v>
       </c>
       <c r="Z2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC2" t="n">
         <v>21</v>
       </c>
-      <c r="AA2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>17</v>
-      </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE2" t="n">
         <v>11</v>
       </c>
       <c r="AF2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AH2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI2" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AJ2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN2" t="n">
         <v>4.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AP2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR2" t="n">
         <v>41</v>
       </c>
       <c r="AS2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU2" t="n">
         <v>7</v>
@@ -873,13 +873,13 @@
         <v>41</v>
       </c>
       <c r="AW2" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AX2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AY2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ2" t="n">
         <v>21</v>
@@ -1622,6 +1622,188 @@
         <v>151</v>
       </c>
       <c r="BD6" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>86Td3Gio</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>26/10/2024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>04:30</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SOUTH KOREA - K LEAGUE 1</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Suwon FC</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Seoul</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N7" t="n">
+        <v>11</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V7" t="n">
+        <v>2</v>
+      </c>
+      <c r="W7" t="n">
+        <v>10</v>
+      </c>
+      <c r="X7" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD7" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-26.xlsx
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.91</v>
+        <v>1.82</v>
       </c>
       <c r="H2" t="n">
         <v>3.9</v>
       </c>
       <c r="I2" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J2" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K2" t="n">
         <v>2.5</v>
@@ -768,7 +768,7 @@
         <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O2" t="n">
         <v>1.14</v>
@@ -777,10 +777,10 @@
         <v>5.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="R2" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="S2" t="n">
         <v>1.25</v>
@@ -789,10 +789,10 @@
         <v>3.75</v>
       </c>
       <c r="U2" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="V2" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="W2" t="n">
         <v>12</v>
@@ -804,19 +804,19 @@
         <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA2" t="n">
         <v>13</v>
       </c>
       <c r="AB2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC2" t="n">
         <v>21</v>
       </c>
       <c r="AD2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE2" t="n">
         <v>11</v>
@@ -843,10 +843,10 @@
         <v>23</v>
       </c>
       <c r="AM2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO2" t="n">
         <v>9.5</v>
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H7" t="n">
         <v>3.25</v>
       </c>
       <c r="I7" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="J7" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K7" t="n">
         <v>2.2</v>
       </c>
       <c r="L7" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M7" t="n">
         <v>1.05</v>
@@ -1708,16 +1708,16 @@
         <v>10</v>
       </c>
       <c r="X7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z7" t="n">
         <v>34</v>
       </c>
       <c r="AA7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB7" t="n">
         <v>34</v>
@@ -1738,19 +1738,19 @@
         <v>201</v>
       </c>
       <c r="AH7" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI7" t="n">
         <v>11</v>
       </c>
       <c r="AJ7" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK7" t="n">
         <v>21</v>
       </c>
       <c r="AL7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM7" t="n">
         <v>26</v>
@@ -1768,7 +1768,7 @@
         <v>51</v>
       </c>
       <c r="AR7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS7" t="n">
         <v>151</v>
@@ -1789,7 +1789,7 @@
         <v>4.33</v>
       </c>
       <c r="AY7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ7" t="n">
         <v>21</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD7"/>
+  <dimension ref="A1:BD8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>M5w5Vo6B</t>
+          <t>U32gW6PH</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,128 +910,128 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>01:50</t>
+          <t>05:35</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>JAPAN - J2 LEAGUE</t>
+          <t>AUSTRALIA - A-LEAGUE</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Iwaki</t>
+          <t>Melbourne City</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Mito</t>
+          <t>Melbourne Victory</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="H3" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>3.3</v>
+        <v>2.45</v>
       </c>
       <c r="J3" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="K3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L3" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O3" t="n">
         <v>1.22</v>
       </c>
       <c r="P3" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.95</v>
+        <v>1.73</v>
       </c>
       <c r="R3" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="S3" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="T3" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U3" t="n">
-        <v>1.69</v>
+        <v>1.62</v>
       </c>
       <c r="V3" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="W3" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="X3" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Y3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA3" t="n">
         <v>21</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>17</v>
       </c>
       <c r="AB3" t="n">
         <v>26</v>
       </c>
       <c r="AC3" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF3" t="n">
         <v>41</v>
       </c>
       <c r="AG3" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI3" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AJ3" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AL3" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AM3" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="AO3" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AP3" t="n">
         <v>21</v>
@@ -1043,46 +1043,46 @@
         <v>51</v>
       </c>
       <c r="AS3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="AU3" t="n">
         <v>7.5</v>
       </c>
       <c r="AV3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW3" t="n">
-        <v>51</v>
+        <v>451</v>
       </c>
       <c r="AX3" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="AY3" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AZ3" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="BA3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB3" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BC3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD3" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0dx9U5LH</t>
+          <t>M5w5Vo6B</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>01:50</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1102,160 +1102,160 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Fujieda MYFC</t>
+          <t>Iwaki</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Chiba</t>
+          <t>Mito</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>5.25</v>
+        <v>2.15</v>
       </c>
       <c r="H4" t="n">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>1.53</v>
+        <v>3.3</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="K4" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L4" t="n">
-        <v>2.05</v>
+        <v>3.75</v>
       </c>
       <c r="M4" t="n">
         <v>1.03</v>
       </c>
       <c r="N4" t="n">
+        <v>11</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2</v>
+      </c>
+      <c r="W4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X4" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA4" t="n">
         <v>17</v>
       </c>
-      <c r="O4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W4" t="n">
-        <v>19</v>
-      </c>
-      <c r="X4" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>41</v>
-      </c>
       <c r="AB4" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AC4" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AD4" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF4" t="n">
         <v>41</v>
       </c>
       <c r="AG4" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AI4" t="n">
-        <v>8.5</v>
+        <v>17</v>
       </c>
       <c r="AJ4" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AK4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO4" t="n">
         <v>12</v>
       </c>
-      <c r="AL4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM4" t="n">
+      <c r="AP4" t="n">
         <v>21</v>
       </c>
-      <c r="AN4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>29</v>
-      </c>
       <c r="AQ4" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AR4" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS4" t="n">
         <v>151</v>
       </c>
       <c r="AT4" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="AU4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW4" t="n">
         <v>51</v>
       </c>
       <c r="AX4" t="n">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="AY4" t="n">
-        <v>7.5</v>
+        <v>17</v>
       </c>
       <c r="AZ4" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="BA4" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="BB4" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="BC4" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BD4" t="n">
         <v>51</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ShVMjpwA</t>
+          <t>0dx9U5LH</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,134 +1274,134 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>JAPAN - J2 LEAGUE</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Puebla</t>
+          <t>Fujieda MYFC</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Guadalajara Chivas</t>
+          <t>Chiba</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="H5" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="I5" t="n">
-        <v>1.95</v>
+        <v>1.53</v>
       </c>
       <c r="J5" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="K5" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L5" t="n">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="O5" t="n">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="P5" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.85</v>
+        <v>1.57</v>
       </c>
       <c r="R5" t="n">
-        <v>2</v>
+        <v>2.35</v>
       </c>
       <c r="S5" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="T5" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U5" t="n">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="V5" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W5" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="X5" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="Y5" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Z5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA5" t="n">
         <v>41</v>
       </c>
-      <c r="AA5" t="n">
-        <v>29</v>
-      </c>
       <c r="AB5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AD5" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF5" t="n">
         <v>41</v>
       </c>
       <c r="AG5" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI5" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AJ5" t="n">
         <v>8.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AL5" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AM5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN5" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="AO5" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AP5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR5" t="n">
         <v>81</v>
@@ -1410,43 +1410,43 @@
         <v>151</v>
       </c>
       <c r="AT5" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="AU5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AY5" t="n">
         <v>7.5</v>
       </c>
-      <c r="AV5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>501</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>10</v>
-      </c>
       <c r="AZ5" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA5" t="n">
         <v>21</v>
       </c>
-      <c r="BA5" t="n">
-        <v>34</v>
-      </c>
       <c r="BB5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BC5" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BD5" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>vyBY8xUN</t>
+          <t>ShVMjpwA</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,41 +1456,41 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SOUTH KOREA - K LEAGUE 1</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Gangwon</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Gimcheon Sangmu</t>
+          <t>Guadalajara Chivas</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="H6" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>4.33</v>
       </c>
       <c r="K6" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L6" t="n">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="M6" t="n">
         <v>1.05</v>
@@ -1499,52 +1499,52 @@
         <v>11</v>
       </c>
       <c r="O6" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P6" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="R6" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="S6" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T6" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U6" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="V6" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W6" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="X6" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC6" t="n">
         <v>11</v>
       </c>
-      <c r="Y6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>10</v>
-      </c>
       <c r="AD6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1556,46 +1556,46 @@
         <v>201</v>
       </c>
       <c r="AH6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL6" t="n">
         <v>15</v>
       </c>
-      <c r="AJ6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL6" t="n">
+      <c r="AM6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP6" t="n">
         <v>26</v>
       </c>
-      <c r="AM6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>21</v>
-      </c>
       <c r="AQ6" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AR6" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS6" t="n">
         <v>151</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV6" t="n">
         <v>51</v>
@@ -1604,31 +1604,31 @@
         <v>501</v>
       </c>
       <c r="AX6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY6" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AZ6" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="BA6" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="BB6" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BC6" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD6" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>86Td3Gio</t>
+          <t>vyBY8xUN</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>04:30</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1648,31 +1648,31 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Suwon FC</t>
+          <t>Gangwon</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Seoul</t>
+          <t>Gimcheon Sangmu</t>
         </is>
       </c>
       <c r="G7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H7" t="n">
         <v>3.2</v>
       </c>
-      <c r="H7" t="n">
-        <v>3.25</v>
-      </c>
       <c r="I7" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="J7" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L7" t="n">
-        <v>2.88</v>
+        <v>3.6</v>
       </c>
       <c r="M7" t="n">
         <v>1.05</v>
@@ -1699,34 +1699,34 @@
         <v>2.75</v>
       </c>
       <c r="U7" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="V7" t="n">
         <v>2</v>
       </c>
       <c r="W7" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="X7" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Y7" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AA7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB7" t="n">
         <v>26</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>34</v>
       </c>
       <c r="AC7" t="n">
         <v>10</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE7" t="n">
         <v>13</v>
@@ -1738,37 +1738,37 @@
         <v>201</v>
       </c>
       <c r="AH7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AI7" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AJ7" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AK7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP7" t="n">
         <v>21</v>
       </c>
-      <c r="AL7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>26</v>
-      </c>
       <c r="AQ7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR7" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS7" t="n">
         <v>151</v>
@@ -1777,7 +1777,7 @@
         <v>2.75</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV7" t="n">
         <v>51</v>
@@ -1786,24 +1786,206 @@
         <v>501</v>
       </c>
       <c r="AX7" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="AY7" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AZ7" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="BA7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB7" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BC7" t="n">
         <v>151</v>
       </c>
       <c r="BD7" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>86Td3Gio</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>26/10/2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>04:30</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SOUTH KOREA - K LEAGUE 1</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Suwon FC</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Seoul</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N8" t="n">
+        <v>11</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V8" t="n">
+        <v>2</v>
+      </c>
+      <c r="W8" t="n">
+        <v>11</v>
+      </c>
+      <c r="X8" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD8" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD8"/>
+  <dimension ref="A1:BD9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ShVMjpwA</t>
+          <t>d0ZZLJGq</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,179 +1456,179 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>MALAYSIA - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Puebla</t>
+          <t>Perak</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Guadalajara Chivas</t>
+          <t>Terengganu</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="H6" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I6" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="J6" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="K6" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L6" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="P6" t="n">
-        <v>3.75</v>
+        <v>3.72</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="R6" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S6" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="T6" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="U6" t="n">
-        <v>1.7</v>
+        <v>1.59</v>
       </c>
       <c r="V6" t="n">
-        <v>2.05</v>
+        <v>2.29</v>
       </c>
       <c r="W6" t="n">
+        <v>10</v>
+      </c>
+      <c r="X6" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>37</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC6" t="n">
         <v>12</v>
       </c>
-      <c r="X6" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>11</v>
-      </c>
       <c r="AD6" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>200</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>22</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>90</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>110</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AU6" t="n">
         <v>6.5</v>
       </c>
-      <c r="AE6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AV6" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW6" t="n">
-        <v>501</v>
+        <v>51</v>
       </c>
       <c r="AX6" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="AY6" t="n">
         <v>10</v>
       </c>
       <c r="AZ6" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="BA6" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="BB6" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="BC6" t="n">
-        <v>126</v>
+        <v>175</v>
       </c>
       <c r="BD6" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>vyBY8xUN</t>
+          <t>ShVMjpwA</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,41 +1638,41 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SOUTH KOREA - K LEAGUE 1</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Gangwon</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Gimcheon Sangmu</t>
+          <t>Guadalajara Chivas</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>4.33</v>
       </c>
       <c r="K7" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L7" t="n">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="M7" t="n">
         <v>1.05</v>
@@ -1681,52 +1681,52 @@
         <v>11</v>
       </c>
       <c r="O7" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P7" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="R7" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="S7" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T7" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U7" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="V7" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W7" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="X7" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC7" t="n">
         <v>11</v>
       </c>
-      <c r="Y7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>10</v>
-      </c>
       <c r="AD7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE7" t="n">
         <v>13</v>
@@ -1738,46 +1738,46 @@
         <v>201</v>
       </c>
       <c r="AH7" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL7" t="n">
         <v>15</v>
       </c>
-      <c r="AJ7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL7" t="n">
+      <c r="AM7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP7" t="n">
         <v>26</v>
       </c>
-      <c r="AM7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>21</v>
-      </c>
       <c r="AQ7" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AR7" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS7" t="n">
         <v>151</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV7" t="n">
         <v>51</v>
@@ -1786,31 +1786,31 @@
         <v>501</v>
       </c>
       <c r="AX7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY7" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AZ7" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="BA7" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="BB7" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BC7" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD7" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>86Td3Gio</t>
+          <t>vyBY8xUN</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,7 +1820,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>04:30</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1830,31 +1830,31 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Suwon FC</t>
+          <t>Gangwon</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Seoul</t>
+          <t>Gimcheon Sangmu</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="H8" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3</v>
+      </c>
+      <c r="K8" t="n">
         <v>2.1</v>
       </c>
-      <c r="J8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.2</v>
-      </c>
       <c r="L8" t="n">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
@@ -1881,34 +1881,34 @@
         <v>2.75</v>
       </c>
       <c r="U8" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="V8" t="n">
         <v>2</v>
       </c>
       <c r="W8" t="n">
+        <v>8</v>
+      </c>
+      <c r="X8" t="n">
         <v>11</v>
       </c>
-      <c r="X8" t="n">
-        <v>17</v>
-      </c>
       <c r="Y8" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AA8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB8" t="n">
         <v>26</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>34</v>
       </c>
       <c r="AC8" t="n">
         <v>10</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
         <v>13</v>
@@ -1920,37 +1920,37 @@
         <v>201</v>
       </c>
       <c r="AH8" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AI8" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AJ8" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AK8" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AL8" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AM8" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AN8" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO8" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AP8" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AQ8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR8" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS8" t="n">
         <v>151</v>
@@ -1959,7 +1959,7 @@
         <v>2.75</v>
       </c>
       <c r="AU8" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV8" t="n">
         <v>51</v>
@@ -1968,24 +1968,206 @@
         <v>501</v>
       </c>
       <c r="AX8" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="AY8" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AZ8" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="BA8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB8" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BC8" t="n">
         <v>151</v>
       </c>
       <c r="BD8" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>86Td3Gio</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>26/10/2024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>04:30</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SOUTH KOREA - K LEAGUE 1</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Suwon FC</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Seoul</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N9" t="n">
+        <v>10</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W9" t="n">
+        <v>10</v>
+      </c>
+      <c r="X9" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD9" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD9"/>
+  <dimension ref="A1:BD10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -932,52 +932,52 @@
         <v>2.75</v>
       </c>
       <c r="H3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J3" t="n">
         <v>3.25</v>
       </c>
       <c r="K3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L3" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N3" t="n">
+        <v>11</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T3" t="n">
         <v>3</v>
       </c>
-      <c r="M3" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N3" t="n">
-        <v>13</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P3" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R3" t="n">
+      <c r="U3" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V3" t="n">
         <v>2.1</v>
       </c>
-      <c r="S3" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T3" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2.2</v>
-      </c>
       <c r="W3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X3" t="n">
         <v>15</v>
@@ -995,13 +995,13 @@
         <v>26</v>
       </c>
       <c r="AC3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE3" t="n">
         <v>13</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>12</v>
       </c>
       <c r="AF3" t="n">
         <v>41</v>
@@ -1010,7 +1010,7 @@
         <v>151</v>
       </c>
       <c r="AH3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI3" t="n">
         <v>13</v>
@@ -1025,10 +1025,10 @@
         <v>19</v>
       </c>
       <c r="AM3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN3" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO3" t="n">
         <v>15</v>
@@ -1037,28 +1037,28 @@
         <v>21</v>
       </c>
       <c r="AQ3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU3" t="n">
         <v>7.5</v>
       </c>
       <c r="AV3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AX3" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AY3" t="n">
         <v>13</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>M5w5Vo6B</t>
+          <t>46jBOOhN</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,170 +1092,170 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>01:50</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>JAPAN - J2 LEAGUE</t>
+          <t>ESTONIA - MEISTRILIIGA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Iwaki</t>
+          <t>Flora</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Mito</t>
+          <t>Kuressaare</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.15</v>
+        <v>1.26</v>
       </c>
       <c r="H4" t="n">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>3.3</v>
+        <v>8.75</v>
       </c>
       <c r="J4" t="n">
-        <v>2.75</v>
+        <v>1.65</v>
       </c>
       <c r="K4" t="n">
-        <v>2.2</v>
+        <v>2.67</v>
       </c>
       <c r="L4" t="n">
-        <v>3.75</v>
+        <v>6.9</v>
       </c>
       <c r="M4" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="O4" t="n">
-        <v>1.22</v>
+        <v>1.07</v>
       </c>
       <c r="P4" t="n">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.95</v>
+        <v>1.34</v>
       </c>
       <c r="R4" t="n">
-        <v>1.9</v>
+        <v>2.69</v>
       </c>
       <c r="S4" t="n">
-        <v>1.4</v>
+        <v>1.21</v>
       </c>
       <c r="T4" t="n">
-        <v>2.75</v>
+        <v>4.1</v>
       </c>
       <c r="U4" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="V4" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="W4" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="X4" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AA4" t="n">
         <v>8.5</v>
       </c>
-      <c r="X4" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA4" t="n">
+      <c r="AB4" t="n">
         <v>17</v>
       </c>
-      <c r="AB4" t="n">
-        <v>26</v>
-      </c>
       <c r="AC4" t="n">
-        <v>10</v>
+        <v>18.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF4" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AG4" t="n">
-        <v>201</v>
+        <v>250</v>
       </c>
       <c r="AH4" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="AI4" t="n">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="AJ4" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AK4" t="n">
-        <v>34</v>
+        <v>175</v>
       </c>
       <c r="AL4" t="n">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="AM4" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.33</v>
+        <v>3.4</v>
       </c>
       <c r="AO4" t="n">
-        <v>12</v>
+        <v>5.4</v>
       </c>
       <c r="AP4" t="n">
-        <v>21</v>
+        <v>12.5</v>
       </c>
       <c r="AQ4" t="n">
-        <v>41</v>
+        <v>12.5</v>
       </c>
       <c r="AR4" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AS4" t="n">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.75</v>
+        <v>3.9</v>
       </c>
       <c r="AU4" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AV4" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW4" t="n">
-        <v>51</v>
+        <v>500</v>
       </c>
       <c r="AX4" t="n">
-        <v>5.5</v>
+        <v>10.25</v>
       </c>
       <c r="AY4" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="AZ4" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="BA4" t="n">
-        <v>51</v>
+        <v>300</v>
       </c>
       <c r="BB4" t="n">
-        <v>81</v>
+        <v>250</v>
       </c>
       <c r="BC4" t="n">
-        <v>151</v>
+        <v>350</v>
       </c>
       <c r="BD4" t="n">
         <v>51</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0dx9U5LH</t>
+          <t>M5w5Vo6B</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>01:50</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1284,160 +1284,160 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Fujieda MYFC</t>
+          <t>Iwaki</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Chiba</t>
+          <t>Mito</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>5.25</v>
+        <v>2.15</v>
       </c>
       <c r="H5" t="n">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>1.53</v>
+        <v>3.3</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="K5" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L5" t="n">
-        <v>2.05</v>
+        <v>3.75</v>
       </c>
       <c r="M5" t="n">
         <v>1.03</v>
       </c>
       <c r="N5" t="n">
+        <v>11</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="V5" t="n">
+        <v>2</v>
+      </c>
+      <c r="W5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X5" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA5" t="n">
         <v>17</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P5" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="V5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W5" t="n">
-        <v>19</v>
-      </c>
-      <c r="X5" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>41</v>
-      </c>
       <c r="AB5" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AC5" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AD5" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF5" t="n">
         <v>41</v>
       </c>
       <c r="AG5" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH5" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AI5" t="n">
-        <v>8.5</v>
+        <v>17</v>
       </c>
       <c r="AJ5" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AK5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO5" t="n">
         <v>12</v>
       </c>
-      <c r="AL5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM5" t="n">
+      <c r="AP5" t="n">
         <v>21</v>
       </c>
-      <c r="AN5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>29</v>
-      </c>
       <c r="AQ5" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AR5" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS5" t="n">
         <v>151</v>
       </c>
       <c r="AT5" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="AU5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW5" t="n">
         <v>51</v>
       </c>
       <c r="AX5" t="n">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="AY5" t="n">
-        <v>7.5</v>
+        <v>17</v>
       </c>
       <c r="AZ5" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="BA5" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="BB5" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="BC5" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BD5" t="n">
         <v>51</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>d0ZZLJGq</t>
+          <t>0dx9U5LH</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,170 +1456,170 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>06:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MALAYSIA - SUPER LEAGUE</t>
+          <t>JAPAN - J2 LEAGUE</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Perak</t>
+          <t>Fujieda MYFC</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Terengganu</t>
+          <t>Chiba</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="H6" t="n">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="I6" t="n">
-        <v>1.98</v>
+        <v>1.53</v>
       </c>
       <c r="J6" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="K6" t="n">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="L6" t="n">
-        <v>2.52</v>
+        <v>2.05</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>11.5</v>
+        <v>17</v>
       </c>
       <c r="O6" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P6" t="n">
-        <v>3.72</v>
+        <v>5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="R6" t="n">
-        <v>1.98</v>
+        <v>2.35</v>
       </c>
       <c r="S6" t="n">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="T6" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="U6" t="n">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="V6" t="n">
-        <v>2.29</v>
+        <v>2.1</v>
       </c>
       <c r="W6" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="X6" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.5</v>
+        <v>17</v>
       </c>
       <c r="Z6" t="n">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="AA6" t="n">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="AB6" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AC6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK6" t="n">
         <v>12</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>35</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>200</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>15.5</v>
       </c>
       <c r="AL6" t="n">
         <v>12</v>
       </c>
       <c r="AM6" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AN6" t="n">
-        <v>5.4</v>
+        <v>7</v>
       </c>
       <c r="AO6" t="n">
-        <v>18.5</v>
+        <v>26</v>
       </c>
       <c r="AP6" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AQ6" t="n">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AR6" t="n">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="AS6" t="n">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.95</v>
+        <v>3.5</v>
       </c>
       <c r="AU6" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AV6" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AW6" t="n">
         <v>51</v>
       </c>
       <c r="AX6" t="n">
-        <v>4.05</v>
+        <v>3.75</v>
       </c>
       <c r="AY6" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="AZ6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA6" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="BB6" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="BC6" t="n">
-        <v>175</v>
+        <v>101</v>
       </c>
       <c r="BD6" t="n">
         <v>51</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ShVMjpwA</t>
+          <t>d0ZZLJGq</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,179 +1638,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>MALAYSIA - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Puebla</t>
+          <t>Perak</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Guadalajara Chivas</t>
+          <t>Terengganu</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>3.35</v>
       </c>
       <c r="H7" t="n">
         <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="J7" t="n">
-        <v>4.33</v>
+        <v>3.65</v>
       </c>
       <c r="K7" t="n">
         <v>2.2</v>
       </c>
       <c r="L7" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V7" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="W7" t="n">
         <v>11</v>
       </c>
-      <c r="O7" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>37</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>175</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AL7" t="n">
         <v>12</v>
       </c>
-      <c r="X7" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK7" t="n">
+      <c r="AM7" t="n">
         <v>17</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>23</v>
       </c>
       <c r="AN7" t="n">
         <v>5.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AP7" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="AQ7" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="AR7" t="n">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AS7" t="n">
-        <v>151</v>
+        <v>250</v>
       </c>
       <c r="AT7" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.5</v>
+        <v>6.4</v>
       </c>
       <c r="AV7" t="n">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="AW7" t="n">
-        <v>501</v>
+        <v>51</v>
       </c>
       <c r="AX7" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="AY7" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AZ7" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="BA7" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="BB7" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="BC7" t="n">
-        <v>126</v>
+        <v>175</v>
       </c>
       <c r="BD7" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>vyBY8xUN</t>
+          <t>ShVMjpwA</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,41 +1820,41 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>SOUTH KOREA - K LEAGUE 1</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Gangwon</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Gimcheon Sangmu</t>
+          <t>Guadalajara Chivas</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="H8" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>4.33</v>
       </c>
       <c r="K8" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L8" t="n">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
@@ -1863,52 +1863,52 @@
         <v>11</v>
       </c>
       <c r="O8" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P8" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="R8" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="S8" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T8" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U8" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="V8" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W8" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="X8" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC8" t="n">
         <v>11</v>
       </c>
-      <c r="Y8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>10</v>
-      </c>
       <c r="AD8" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE8" t="n">
         <v>13</v>
@@ -1920,46 +1920,46 @@
         <v>201</v>
       </c>
       <c r="AH8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL8" t="n">
         <v>15</v>
       </c>
-      <c r="AJ8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL8" t="n">
+      <c r="AM8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP8" t="n">
         <v>26</v>
       </c>
-      <c r="AM8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>21</v>
-      </c>
       <c r="AQ8" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AR8" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS8" t="n">
         <v>151</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU8" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV8" t="n">
         <v>51</v>
@@ -1968,31 +1968,31 @@
         <v>501</v>
       </c>
       <c r="AX8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY8" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AZ8" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="BA8" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="BB8" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BC8" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD8" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>86Td3Gio</t>
+          <t>vyBY8xUN</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,7 +2002,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>04:30</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2012,133 +2012,133 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Suwon FC</t>
+          <t>Gangwon</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Seoul</t>
+          <t>Gimcheon Sangmu</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="H9" t="n">
         <v>3.2</v>
       </c>
       <c r="I9" t="n">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="J9" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="K9" t="n">
         <v>2.1</v>
       </c>
       <c r="L9" t="n">
-        <v>2.88</v>
+        <v>3.6</v>
       </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2</v>
+      </c>
+      <c r="W9" t="n">
+        <v>8</v>
+      </c>
+      <c r="X9" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC9" t="n">
         <v>10</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W9" t="n">
-        <v>10</v>
-      </c>
-      <c r="X9" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>9</v>
       </c>
       <c r="AD9" t="n">
         <v>6</v>
       </c>
       <c r="AE9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI9" t="n">
         <v>15</v>
       </c>
-      <c r="AF9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>10</v>
-      </c>
       <c r="AJ9" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AK9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP9" t="n">
         <v>21</v>
       </c>
-      <c r="AL9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>26</v>
-      </c>
       <c r="AQ9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR9" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS9" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU9" t="n">
         <v>8</v>
@@ -2150,24 +2150,206 @@
         <v>501</v>
       </c>
       <c r="AX9" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="AY9" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AZ9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB9" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BC9" t="n">
         <v>151</v>
       </c>
       <c r="BD9" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>86Td3Gio</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>26/10/2024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>04:30</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>SOUTH KOREA - K LEAGUE 1</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Suwon FC</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Seoul</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N10" t="n">
+        <v>10</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W10" t="n">
+        <v>10</v>
+      </c>
+      <c r="X10" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD10" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD10"/>
+  <dimension ref="A1:BD14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H3" t="n">
         <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J3" t="n">
         <v>3.25</v>
@@ -986,7 +986,7 @@
         <v>10</v>
       </c>
       <c r="Z3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA3" t="n">
         <v>21</v>
@@ -1016,10 +1016,10 @@
         <v>13</v>
       </c>
       <c r="AJ3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL3" t="n">
         <v>19</v>
@@ -1037,7 +1037,7 @@
         <v>21</v>
       </c>
       <c r="AQ3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR3" t="n">
         <v>67</v>
@@ -1058,7 +1058,7 @@
         <v>501</v>
       </c>
       <c r="AX3" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AY3" t="n">
         <v>13</v>
@@ -1073,7 +1073,7 @@
         <v>51</v>
       </c>
       <c r="BC3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD3" t="n">
         <v>126</v>
@@ -1138,13 +1138,13 @@
         <v>1.07</v>
       </c>
       <c r="P4" t="n">
-        <v>5.5</v>
+        <v>5.55</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="R4" t="n">
-        <v>2.69</v>
+        <v>2.73</v>
       </c>
       <c r="S4" t="n">
         <v>1.21</v>
@@ -1657,58 +1657,58 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H7" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I7" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="J7" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="K7" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="L7" t="n">
         <v>2.5</v>
       </c>
       <c r="M7" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="N7" t="n">
         <v>1.01</v>
       </c>
-      <c r="N7" t="n">
-        <v>11.5</v>
-      </c>
       <c r="O7" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P7" t="n">
-        <v>3.82</v>
+        <v>3.66</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="R7" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="S7" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="T7" t="n">
-        <v>3.13</v>
+        <v>3.04</v>
       </c>
       <c r="U7" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="V7" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="W7" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="X7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y7" t="n">
         <v>9.75</v>
@@ -1717,76 +1717,76 @@
         <v>37</v>
       </c>
       <c r="AA7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB7" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AC7" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AD7" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AE7" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AG7" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AH7" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AI7" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AJ7" t="n">
         <v>7.1</v>
       </c>
       <c r="AK7" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AL7" t="n">
         <v>12</v>
       </c>
       <c r="AM7" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AN7" t="n">
         <v>5.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AP7" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AQ7" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AR7" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AS7" t="n">
         <v>250</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.05</v>
+        <v>2.87</v>
       </c>
       <c r="AU7" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AV7" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AW7" t="n">
         <v>51</v>
       </c>
       <c r="AX7" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="AY7" t="n">
         <v>9.75</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>vyBY8xUN</t>
+          <t>xdMjMez3</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,29 +2002,29 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>SOUTH KOREA - K LEAGUE 1</t>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Gangwon</t>
+          <t>Penafiel</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Gimcheon Sangmu</t>
+          <t>Academico Viseu</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H9" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I9" t="n">
         <v>3.1</v>
@@ -2036,37 +2036,37 @@
         <v>2.1</v>
       </c>
       <c r="L9" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O9" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="P9" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="R9" t="n">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="S9" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T9" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U9" t="n">
-        <v>1.69</v>
+        <v>1.8</v>
       </c>
       <c r="V9" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W9" t="n">
         <v>8</v>
@@ -2084,10 +2084,10 @@
         <v>19</v>
       </c>
       <c r="AB9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AD9" t="n">
         <v>6</v>
@@ -2096,13 +2096,13 @@
         <v>13</v>
       </c>
       <c r="AF9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG9" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH9" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI9" t="n">
         <v>15</v>
@@ -2126,19 +2126,19 @@
         <v>13</v>
       </c>
       <c r="AP9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ9" t="n">
         <v>41</v>
       </c>
       <c r="AR9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS9" t="n">
         <v>151</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU9" t="n">
         <v>8</v>
@@ -2147,7 +2147,7 @@
         <v>51</v>
       </c>
       <c r="AW9" t="n">
-        <v>501</v>
+        <v>81</v>
       </c>
       <c r="AX9" t="n">
         <v>5</v>
@@ -2165,16 +2165,16 @@
         <v>81</v>
       </c>
       <c r="BC9" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD9" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>86Td3Gio</t>
+          <t>p4hZVNR1</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,47 +2184,47 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>04:30</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>SOUTH KOREA - K LEAGUE 1</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Suwon FC</t>
+          <t>UTA Arad</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Seoul</t>
+          <t>Gloria Buzau</t>
         </is>
       </c>
       <c r="G10" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H10" t="n">
         <v>3.3</v>
       </c>
-      <c r="H10" t="n">
-        <v>3.2</v>
-      </c>
       <c r="I10" t="n">
-        <v>2.15</v>
+        <v>4.33</v>
       </c>
       <c r="J10" t="n">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="K10" t="n">
         <v>2.1</v>
       </c>
       <c r="L10" t="n">
-        <v>2.88</v>
+        <v>4.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O10" t="n">
         <v>1.3</v>
@@ -2236,43 +2236,43 @@
         <v>2.05</v>
       </c>
       <c r="R10" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S10" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T10" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U10" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V10" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W10" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="X10" t="n">
-        <v>17</v>
+        <v>8.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="AA10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB10" t="n">
         <v>29</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>34</v>
       </c>
       <c r="AC10" t="n">
         <v>9</v>
       </c>
       <c r="AD10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE10" t="n">
         <v>15</v>
@@ -2281,76 +2281,804 @@
         <v>51</v>
       </c>
       <c r="AG10" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC10" t="n">
         <v>251</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="BD10" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>vyBY8xUN</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>26/10/2024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SOUTH KOREA - K LEAGUE 1</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Gangwon</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Gimcheon Sangmu</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N11" t="n">
+        <v>11</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="V11" t="n">
+        <v>2</v>
+      </c>
+      <c r="W11" t="n">
+        <v>8</v>
+      </c>
+      <c r="X11" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>86Td3Gio</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>26/10/2024</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>04:30</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>SOUTH KOREA - K LEAGUE 1</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Suwon FC</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Seoul</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N12" t="n">
+        <v>10</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W12" t="n">
+        <v>10</v>
+      </c>
+      <c r="X12" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH12" t="n">
         <v>7.5</v>
       </c>
-      <c r="AI10" t="n">
+      <c r="AI12" t="n">
         <v>10</v>
       </c>
-      <c r="AJ10" t="n">
+      <c r="AJ12" t="n">
         <v>9</v>
       </c>
-      <c r="AK10" t="n">
+      <c r="AK12" t="n">
         <v>21</v>
       </c>
-      <c r="AL10" t="n">
+      <c r="AL12" t="n">
         <v>19</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AM12" t="n">
         <v>29</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AN12" t="n">
         <v>5</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AO12" t="n">
         <v>19</v>
       </c>
-      <c r="AP10" t="n">
+      <c r="AP12" t="n">
         <v>26</v>
       </c>
-      <c r="AQ10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR10" t="n">
+      <c r="AQ12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR12" t="n">
         <v>81</v>
       </c>
-      <c r="AS10" t="n">
+      <c r="AS12" t="n">
         <v>201</v>
       </c>
-      <c r="AT10" t="n">
+      <c r="AT12" t="n">
         <v>2.63</v>
       </c>
-      <c r="AU10" t="n">
+      <c r="AU12" t="n">
         <v>8</v>
       </c>
-      <c r="AV10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW10" t="n">
+      <c r="AV12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW12" t="n">
         <v>501</v>
       </c>
-      <c r="AX10" t="n">
+      <c r="AX12" t="n">
         <v>4.33</v>
       </c>
-      <c r="AY10" t="n">
+      <c r="AY12" t="n">
         <v>12</v>
       </c>
-      <c r="AZ10" t="n">
+      <c r="AZ12" t="n">
         <v>23</v>
       </c>
-      <c r="BA10" t="n">
+      <c r="BA12" t="n">
         <v>41</v>
       </c>
-      <c r="BB10" t="n">
+      <c r="BB12" t="n">
         <v>67</v>
       </c>
-      <c r="BC10" t="n">
+      <c r="BC12" t="n">
         <v>151</v>
       </c>
-      <c r="BD10" t="n">
-        <v>51</v>
+      <c r="BD12" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>zocXixyg</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>26/10/2024</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>TURKEY - SUPER LIG</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Hatayspor</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Kayserispor</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N13" t="n">
+        <v>13</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X13" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>251</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>8p07HlDr</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>26/10/2024</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Corum</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Genclerbirligi</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W14" t="n">
+        <v>7</v>
+      </c>
+      <c r="X14" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-10-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD14"/>
+  <dimension ref="A1:BD25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -929,28 +929,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H3" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="J3" t="n">
         <v>3.25</v>
       </c>
       <c r="K3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L3" t="n">
         <v>3.1</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O3" t="n">
         <v>1.25</v>
@@ -959,10 +959,10 @@
         <v>4</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R3" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S3" t="n">
         <v>1.36</v>
@@ -971,10 +971,10 @@
         <v>3</v>
       </c>
       <c r="U3" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W3" t="n">
         <v>10</v>
@@ -986,7 +986,7 @@
         <v>10</v>
       </c>
       <c r="Z3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA3" t="n">
         <v>21</v>
@@ -1001,7 +1001,7 @@
         <v>6.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF3" t="n">
         <v>41</v>
@@ -1016,10 +1016,10 @@
         <v>13</v>
       </c>
       <c r="AJ3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL3" t="n">
         <v>19</v>
@@ -1037,7 +1037,7 @@
         <v>21</v>
       </c>
       <c r="AQ3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR3" t="n">
         <v>67</v>
@@ -1058,7 +1058,7 @@
         <v>501</v>
       </c>
       <c r="AX3" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AY3" t="n">
         <v>13</v>
@@ -1073,7 +1073,7 @@
         <v>51</v>
       </c>
       <c r="BC3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD3" t="n">
         <v>126</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>46jBOOhN</t>
+          <t>0UstnpeK</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,179 +1092,179 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>07:45</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ESTONIA - MEISTRILIIGA</t>
+          <t>AUSTRALIA - A-LEAGUE</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Flora</t>
+          <t>Perth Glory</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Kuressaare</t>
+          <t>Wellington Phoenix</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.26</v>
+        <v>3.1</v>
       </c>
       <c r="H4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N4" t="n">
+        <v>15</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P4" t="n">
         <v>5</v>
       </c>
-      <c r="I4" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N4" t="n">
-        <v>16</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5.55</v>
-      </c>
       <c r="Q4" t="n">
-        <v>1.33</v>
+        <v>1.62</v>
       </c>
       <c r="R4" t="n">
-        <v>2.73</v>
+        <v>2.3</v>
       </c>
       <c r="S4" t="n">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="T4" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="U4" t="n">
-        <v>1.72</v>
+        <v>1.5</v>
       </c>
       <c r="V4" t="n">
-        <v>2.07</v>
+        <v>2.5</v>
       </c>
       <c r="W4" t="n">
-        <v>8.25</v>
+        <v>13</v>
       </c>
       <c r="X4" t="n">
-        <v>6.6</v>
+        <v>19</v>
       </c>
       <c r="Y4" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="Z4" t="n">
-        <v>7.4</v>
+        <v>34</v>
       </c>
       <c r="AA4" t="n">
-        <v>8.5</v>
+        <v>21</v>
       </c>
       <c r="AB4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL4" t="n">
         <v>17</v>
       </c>
-      <c r="AC4" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE4" t="n">
+      <c r="AM4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO4" t="n">
         <v>15</v>
       </c>
-      <c r="AF4" t="n">
-        <v>45</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>250</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>22</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>175</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>45</v>
-      </c>
-      <c r="AN4" t="n">
+      <c r="AP4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT4" t="n">
         <v>3.4</v>
       </c>
-      <c r="AO4" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>120</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>3.9</v>
-      </c>
       <c r="AU4" t="n">
-        <v>7.7</v>
+        <v>7</v>
       </c>
       <c r="AV4" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AW4" t="n">
-        <v>500</v>
+        <v>351</v>
       </c>
       <c r="AX4" t="n">
-        <v>10.25</v>
+        <v>4.5</v>
       </c>
       <c r="AY4" t="n">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="AZ4" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="BA4" t="n">
-        <v>300</v>
+        <v>41</v>
       </c>
       <c r="BB4" t="n">
-        <v>250</v>
+        <v>51</v>
       </c>
       <c r="BC4" t="n">
-        <v>350</v>
+        <v>101</v>
       </c>
       <c r="BD4" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>M5w5Vo6B</t>
+          <t>MJKCxdpQ</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,170 +1274,170 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>01:50</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>JAPAN - J2 LEAGUE</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Iwaki</t>
+          <t>Hebar</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Mito</t>
+          <t>Krumovgrad</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.15</v>
+        <v>4.1</v>
       </c>
       <c r="H5" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="K5" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>7</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U5" t="n">
         <v>2.2</v>
       </c>
-      <c r="L5" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N5" t="n">
-        <v>11</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.69</v>
-      </c>
       <c r="V5" t="n">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="W5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X5" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="Y5" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="Z5" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AA5" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AB5" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="AC5" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE5" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AF5" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AG5" t="n">
         <v>201</v>
       </c>
       <c r="AH5" t="n">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="AI5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK5" t="n">
         <v>17</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AL5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AY5" t="n">
         <v>12</v>
       </c>
-      <c r="AK5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>17</v>
-      </c>
       <c r="AZ5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB5" t="n">
         <v>81</v>
       </c>
       <c r="BC5" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BD5" t="n">
         <v>51</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0dx9U5LH</t>
+          <t>EyIxorK5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,41 +1456,41 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>JAPAN - J2 LEAGUE</t>
+          <t>DENMARK - 1ST DIVISION</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Fujieda MYFC</t>
+          <t>Hvidovre IF</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Chiba</t>
+          <t>Vendsyssel</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>5.25</v>
+        <v>1.75</v>
       </c>
       <c r="H6" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I6" t="n">
-        <v>1.53</v>
+        <v>3.8</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="K6" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L6" t="n">
-        <v>2.05</v>
+        <v>4.33</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
@@ -1517,118 +1517,118 @@
         <v>3.5</v>
       </c>
       <c r="U6" t="n">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="V6" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="W6" t="n">
-        <v>19</v>
+        <v>9.5</v>
       </c>
       <c r="X6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL6" t="n">
         <v>29</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="AM6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP6" t="n">
         <v>17</v>
       </c>
-      <c r="Z6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AO6" t="n">
+      <c r="AQ6" t="n">
         <v>26</v>
       </c>
-      <c r="AP6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>81</v>
-      </c>
       <c r="AR6" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AS6" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AT6" t="n">
         <v>3.5</v>
       </c>
       <c r="AU6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV6" t="n">
         <v>41</v>
       </c>
       <c r="AW6" t="n">
-        <v>51</v>
+        <v>351</v>
       </c>
       <c r="AX6" t="n">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="AY6" t="n">
-        <v>7.5</v>
+        <v>21</v>
       </c>
       <c r="AZ6" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="BA6" t="n">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="BB6" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BC6" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BD6" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>d0ZZLJGq</t>
+          <t>46jBOOhN</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,170 +1638,170 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>06:00</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MALAYSIA - SUPER LEAGUE</t>
+          <t>ESTONIA - MEISTRILIIGA</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Perak</t>
+          <t>Flora</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Terengganu</t>
+          <t>Kuressaare</t>
         </is>
       </c>
       <c r="G7" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="L7" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N7" t="n">
+        <v>16</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="T7" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V7" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W7" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="X7" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>175</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>45</v>
+      </c>
+      <c r="AN7" t="n">
         <v>3.4</v>
       </c>
-      <c r="H7" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="M7" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="N7" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X7" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>37</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>25</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>37</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>200</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>5.5</v>
-      </c>
       <c r="AO7" t="n">
-        <v>19</v>
+        <v>5.4</v>
       </c>
       <c r="AP7" t="n">
-        <v>23</v>
+        <v>12.5</v>
       </c>
       <c r="AQ7" t="n">
-        <v>90</v>
+        <v>12.5</v>
       </c>
       <c r="AR7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AS7" t="n">
         <v>120</v>
       </c>
-      <c r="AS7" t="n">
-        <v>250</v>
-      </c>
       <c r="AT7" t="n">
-        <v>2.87</v>
+        <v>3.9</v>
       </c>
       <c r="AU7" t="n">
-        <v>6.6</v>
+        <v>7.7</v>
       </c>
       <c r="AV7" t="n">
         <v>50</v>
       </c>
       <c r="AW7" t="n">
-        <v>51</v>
+        <v>500</v>
       </c>
       <c r="AX7" t="n">
-        <v>4</v>
+        <v>10.25</v>
       </c>
       <c r="AY7" t="n">
-        <v>9.75</v>
+        <v>45</v>
       </c>
       <c r="AZ7" t="n">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="BA7" t="n">
-        <v>35</v>
+        <v>300</v>
       </c>
       <c r="BB7" t="n">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="BC7" t="n">
-        <v>175</v>
+        <v>350</v>
       </c>
       <c r="BD7" t="n">
         <v>51</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ShVMjpwA</t>
+          <t>r3AbGPNG</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,179 +1820,179 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Puebla</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Guadalajara Chivas</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I8" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="J8" t="n">
-        <v>4.33</v>
+        <v>3.2</v>
       </c>
       <c r="K8" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N8" t="n">
+        <v>19</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P8" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R8" t="n">
         <v>2.6</v>
       </c>
-      <c r="M8" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N8" t="n">
+      <c r="S8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W8" t="n">
+        <v>17</v>
+      </c>
+      <c r="X8" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y8" t="n">
         <v>11</v>
       </c>
-      <c r="O8" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T8" t="n">
-        <v>3</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="W8" t="n">
-        <v>12</v>
-      </c>
-      <c r="X8" t="n">
+      <c r="Z8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA8" t="n">
         <v>21</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="AB8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH8" t="n">
         <v>13</v>
       </c>
-      <c r="Z8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>8</v>
-      </c>
       <c r="AI8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>9.5</v>
       </c>
-      <c r="AJ8" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AK8" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AL8" t="n">
         <v>15</v>
       </c>
       <c r="AM8" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AN8" t="n">
         <v>5.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AP8" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AQ8" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AR8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS8" t="n">
         <v>81</v>
       </c>
-      <c r="AS8" t="n">
-        <v>151</v>
-      </c>
       <c r="AT8" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="AU8" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW8" t="n">
-        <v>501</v>
+        <v>251</v>
       </c>
       <c r="AX8" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="AY8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ8" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="BA8" t="n">
         <v>34</v>
       </c>
       <c r="BB8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BC8" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BD8" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>xdMjMez3</t>
+          <t>UPyjK7Oi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,170 +2002,170 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Penafiel</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Academico Viseu</t>
+          <t>Hertha Berlin</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="I9" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="K9" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N9" t="n">
+        <v>21</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P9" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T9" t="n">
         <v>3.75</v>
       </c>
-      <c r="M9" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N9" t="n">
-        <v>10</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.63</v>
-      </c>
       <c r="U9" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="V9" t="n">
-        <v>1.91</v>
+        <v>2.75</v>
       </c>
       <c r="W9" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="X9" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z9" t="n">
         <v>21</v>
       </c>
       <c r="AA9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB9" t="n">
         <v>19</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AC9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF9" t="n">
         <v>29</v>
       </c>
-      <c r="AC9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD9" t="n">
+      <c r="AG9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>251</v>
+      </c>
+      <c r="AX9" t="n">
         <v>6</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>5</v>
       </c>
       <c r="AY9" t="n">
         <v>17</v>
       </c>
       <c r="AZ9" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="BA9" t="n">
         <v>51</v>
       </c>
       <c r="BB9" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BC9" t="n">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="BD9" t="n">
         <v>81</v>
@@ -2174,7 +2174,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>p4hZVNR1</t>
+          <t>zw7jIog4</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,179 +2184,179 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>UTA Arad</t>
+          <t>Schalke</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Gloria Buzau</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H10" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="I10" t="n">
-        <v>4.33</v>
+        <v>3.9</v>
       </c>
       <c r="J10" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K10" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L10" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="O10" t="n">
-        <v>1.3</v>
+        <v>1.17</v>
       </c>
       <c r="P10" t="n">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.05</v>
+        <v>1.57</v>
       </c>
       <c r="R10" t="n">
-        <v>1.8</v>
+        <v>2.35</v>
       </c>
       <c r="S10" t="n">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="T10" t="n">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U10" t="n">
-        <v>1.83</v>
+        <v>1.53</v>
       </c>
       <c r="V10" t="n">
-        <v>1.83</v>
+        <v>2.38</v>
       </c>
       <c r="W10" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="X10" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="Y10" t="n">
         <v>8.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM10" t="n">
         <v>29</v>
       </c>
-      <c r="AC10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>41</v>
-      </c>
       <c r="AN10" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="AO10" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP10" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AQ10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS10" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU10" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AV10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW10" t="n">
-        <v>51</v>
+        <v>351</v>
       </c>
       <c r="AX10" t="n">
         <v>6</v>
       </c>
       <c r="AY10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ10" t="n">
         <v>23</v>
       </c>
-      <c r="AZ10" t="n">
-        <v>29</v>
-      </c>
       <c r="BA10" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD10" t="n">
         <v>81</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>251</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>vyBY8xUN</t>
+          <t>M5w5Vo6B</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,59 +2366,59 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>01:50</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>SOUTH KOREA - K LEAGUE 1</t>
+          <t>JAPAN - J2 LEAGUE</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Gangwon</t>
+          <t>Iwaki</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Gimcheon Sangmu</t>
+          <t>Mito</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="H11" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I11" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="K11" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L11" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N11" t="n">
         <v>11</v>
       </c>
       <c r="O11" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="P11" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R11" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S11" t="n">
         <v>1.4</v>
@@ -2433,19 +2433,19 @@
         <v>2</v>
       </c>
       <c r="W11" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X11" t="n">
         <v>11</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z11" t="n">
         <v>21</v>
       </c>
       <c r="AA11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB11" t="n">
         <v>26</v>
@@ -2454,7 +2454,7 @@
         <v>10</v>
       </c>
       <c r="AD11" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE11" t="n">
         <v>13</v>
@@ -2466,10 +2466,10 @@
         <v>201</v>
       </c>
       <c r="AH11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ11" t="n">
         <v>12</v>
@@ -2487,7 +2487,7 @@
         <v>4.33</v>
       </c>
       <c r="AO11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP11" t="n">
         <v>21</v>
@@ -2505,16 +2505,16 @@
         <v>2.75</v>
       </c>
       <c r="AU11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV11" t="n">
         <v>51</v>
       </c>
       <c r="AW11" t="n">
-        <v>501</v>
+        <v>51</v>
       </c>
       <c r="AX11" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AY11" t="n">
         <v>17</v>
@@ -2538,7 +2538,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>86Td3Gio</t>
+          <t>0dx9U5LH</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,170 +2548,170 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>04:30</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>SOUTH KOREA - K LEAGUE 1</t>
+          <t>JAPAN - J2 LEAGUE</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Suwon FC</t>
+          <t>Fujieda MYFC</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Seoul</t>
+          <t>Chiba</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="H12" t="n">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="I12" t="n">
-        <v>2.15</v>
+        <v>1.53</v>
       </c>
       <c r="J12" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="K12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N12" t="n">
+        <v>17</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="V12" t="n">
         <v>2.1</v>
       </c>
-      <c r="L12" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N12" t="n">
-        <v>10</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.91</v>
-      </c>
       <c r="W12" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="X12" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y12" t="n">
         <v>17</v>
       </c>
-      <c r="Y12" t="n">
-        <v>12</v>
-      </c>
       <c r="Z12" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AA12" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AB12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC12" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AD12" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="AE12" t="n">
         <v>15</v>
       </c>
       <c r="AF12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG12" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AH12" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AI12" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AJ12" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM12" t="n">
         <v>21</v>
       </c>
-      <c r="AL12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM12" t="n">
+      <c r="AN12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP12" t="n">
         <v>29</v>
       </c>
-      <c r="AN12" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>26</v>
-      </c>
       <c r="AQ12" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AR12" t="n">
         <v>81</v>
       </c>
       <c r="AS12" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.63</v>
+        <v>3.5</v>
       </c>
       <c r="AU12" t="n">
         <v>8</v>
       </c>
       <c r="AV12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW12" t="n">
-        <v>501</v>
+        <v>51</v>
       </c>
       <c r="AX12" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="AY12" t="n">
-        <v>12</v>
+        <v>7.5</v>
       </c>
       <c r="AZ12" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="BA12" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="BB12" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="BC12" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="BD12" t="n">
         <v>51</v>
@@ -2720,7 +2720,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>zocXixyg</t>
+          <t>GIZ5RM3s</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,354 +2730,2356 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>LATVIA - VIRSLIGA</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Grobina</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Kayserispor</t>
+          <t>FK Liepaja</t>
         </is>
       </c>
       <c r="G13" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K13" t="n">
         <v>2.2</v>
       </c>
-      <c r="H13" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I13" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2.25</v>
-      </c>
       <c r="L13" t="n">
-        <v>3.5</v>
+        <v>2.15</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>13</v>
+        <v>11.4</v>
       </c>
       <c r="O13" t="n">
         <v>1.22</v>
       </c>
       <c r="P13" t="n">
-        <v>4</v>
+        <v>3.35</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="R13" t="n">
-        <v>2.08</v>
+        <v>1.87</v>
       </c>
       <c r="S13" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="T13" t="n">
-        <v>3.25</v>
+        <v>2.94</v>
       </c>
       <c r="U13" t="n">
-        <v>1.62</v>
+        <v>1.82</v>
       </c>
       <c r="V13" t="n">
-        <v>2.2</v>
+        <v>1.94</v>
       </c>
       <c r="W13" t="n">
-        <v>9.5</v>
+        <v>10.75</v>
       </c>
       <c r="X13" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="Y13" t="n">
-        <v>9</v>
+        <v>12.5</v>
       </c>
       <c r="Z13" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>35</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>37</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>400</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AM13" t="n">
         <v>21</v>
       </c>
-      <c r="AA13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>29</v>
-      </c>
       <c r="AN13" t="n">
-        <v>4.5</v>
+        <v>6.3</v>
       </c>
       <c r="AO13" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="AP13" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="AQ13" t="n">
-        <v>41</v>
+        <v>150</v>
       </c>
       <c r="AR13" t="n">
-        <v>51</v>
+        <v>200</v>
       </c>
       <c r="AS13" t="n">
-        <v>126</v>
+        <v>450</v>
       </c>
       <c r="AT13" t="n">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="AU13" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AV13" t="n">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="AW13" t="n">
-        <v>251</v>
+        <v>51</v>
       </c>
       <c r="AX13" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="AY13" t="n">
-        <v>17</v>
+        <v>7.7</v>
       </c>
       <c r="AZ13" t="n">
-        <v>23</v>
+        <v>17.5</v>
       </c>
       <c r="BA13" t="n">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="BB13" t="n">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="BC13" t="n">
-        <v>151</v>
+        <v>250</v>
       </c>
       <c r="BD13" t="n">
-        <v>301</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>AuZ9QtJm</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>26/10/2024</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>LATVIA - VIRSLIGA</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Valmiera</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Jelgava</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="H14" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="L14" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N14" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="P14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="T14" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="W14" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="X14" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>22</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>45</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>37</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>450</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>120</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>80</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>50</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>400</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>400</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>450</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>d0ZZLJGq</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>26/10/2024</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>06:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>MALAYSIA - SUPER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Perak</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Terengganu</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="J15" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N15" t="n">
+        <v>13</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="T15" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="V15" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="W15" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="X15" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>45</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>37</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>200</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>100</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>120</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>32</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>55</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>175</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ShVMjpwA</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>26/10/2024</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>MEXICO - LIGA MX</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Guadalajara Chivas</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>4</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="J16" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N16" t="n">
+        <v>11</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T16" t="n">
+        <v>3</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V16" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W16" t="n">
+        <v>12</v>
+      </c>
+      <c r="X16" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>34</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>xdMjMez3</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>26/10/2024</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Penafiel</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Academico Viseu</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N17" t="n">
+        <v>10</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W17" t="n">
+        <v>8</v>
+      </c>
+      <c r="X17" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>201</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>p4hZVNR1</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>26/10/2024</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>ROMANIA - LIGA 1</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>UTA Arad</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Gloria Buzau</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I18" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L18" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N18" t="n">
+        <v>9</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W18" t="n">
+        <v>7</v>
+      </c>
+      <c r="X18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>vyBY8xUN</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>26/10/2024</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>SOUTH KOREA - K LEAGUE 1</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Gangwon</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Gimcheon Sangmu</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L19" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N19" t="n">
+        <v>11</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="V19" t="n">
+        <v>2</v>
+      </c>
+      <c r="W19" t="n">
+        <v>8</v>
+      </c>
+      <c r="X19" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>86Td3Gio</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>26/10/2024</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>04:30</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>SOUTH KOREA - K LEAGUE 1</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Suwon FC</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Seoul</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N20" t="n">
+        <v>10</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W20" t="n">
+        <v>10</v>
+      </c>
+      <c r="X20" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Uej02OZG</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>26/10/2024</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>SWEDEN - SUPERETTAN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Landskrona</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Brage</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L21" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N21" t="n">
+        <v>15</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V21" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X21" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>401</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>drENJP4i</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>26/10/2024</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>SWEDEN - SUPERETTAN</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Sandviken</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Helsingborg</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I22" t="n">
+        <v>4</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L22" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N22" t="n">
+        <v>19</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V22" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W22" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X22" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>401</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>tzWzdMCp</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>26/10/2024</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>SWEDEN - SUPERETTAN</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Utsikten</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Ostersund</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L23" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N23" t="n">
+        <v>13</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T23" t="n">
+        <v>3</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V23" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W23" t="n">
+        <v>10</v>
+      </c>
+      <c r="X23" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>zocXixyg</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>26/10/2024</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>TURKEY - SUPER LIG</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Hatayspor</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Kayserispor</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L24" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N24" t="n">
+        <v>13</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T24" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V24" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W24" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X24" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>251</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
           <t>8p07HlDr</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>26/10/2024</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>07:30</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>TURKEY - 1. LIG</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>Corum</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>Genclerbirligi</t>
         </is>
       </c>
-      <c r="G14" t="n">
+      <c r="G25" t="n">
         <v>2.25</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H25" t="n">
         <v>3.2</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I25" t="n">
         <v>3</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J25" t="n">
         <v>3.1</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K25" t="n">
         <v>2.05</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L25" t="n">
         <v>3.75</v>
       </c>
-      <c r="M14" t="n">
+      <c r="M25" t="n">
         <v>1.07</v>
       </c>
-      <c r="N14" t="n">
+      <c r="N25" t="n">
         <v>8.5</v>
       </c>
-      <c r="O14" t="n">
+      <c r="O25" t="n">
         <v>1.36</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P25" t="n">
         <v>3</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q25" t="n">
         <v>2.2</v>
       </c>
-      <c r="R14" t="n">
+      <c r="R25" t="n">
         <v>1.65</v>
       </c>
-      <c r="S14" t="n">
+      <c r="S25" t="n">
         <v>1.5</v>
       </c>
-      <c r="T14" t="n">
+      <c r="T25" t="n">
         <v>2.5</v>
       </c>
-      <c r="U14" t="n">
+      <c r="U25" t="n">
         <v>1.91</v>
       </c>
-      <c r="V14" t="n">
+      <c r="V25" t="n">
         <v>1.8</v>
       </c>
-      <c r="W14" t="n">
+      <c r="W25" t="n">
         <v>7</v>
       </c>
-      <c r="X14" t="n">
+      <c r="X25" t="n">
         <v>10</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="Y25" t="n">
         <v>9.5</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="Z25" t="n">
         <v>21</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AA25" t="n">
         <v>21</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AB25" t="n">
         <v>34</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AC25" t="n">
         <v>8.5</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AD25" t="n">
         <v>6.5</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AE25" t="n">
         <v>17</v>
       </c>
-      <c r="AF14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG14" t="n">
+      <c r="AF25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG25" t="n">
         <v>351</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AH25" t="n">
         <v>8.5</v>
       </c>
-      <c r="AI14" t="n">
+      <c r="AI25" t="n">
         <v>15</v>
       </c>
-      <c r="AJ14" t="n">
+      <c r="AJ25" t="n">
         <v>12</v>
       </c>
-      <c r="AK14" t="n">
+      <c r="AK25" t="n">
         <v>34</v>
       </c>
-      <c r="AL14" t="n">
+      <c r="AL25" t="n">
         <v>29</v>
       </c>
-      <c r="AM14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN14" t="n">
+      <c r="AM25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN25" t="n">
         <v>4.33</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AO25" t="n">
         <v>13</v>
       </c>
-      <c r="AP14" t="n">
+      <c r="AP25" t="n">
         <v>26</v>
       </c>
-      <c r="AQ14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR14" t="n">
+      <c r="AQ25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR25" t="n">
         <v>67</v>
       </c>
-      <c r="AS14" t="n">
+      <c r="AS25" t="n">
         <v>201</v>
       </c>
-      <c r="AT14" t="n">
+      <c r="AT25" t="n">
         <v>2.5</v>
       </c>
-      <c r="AU14" t="n">
+      <c r="AU25" t="n">
         <v>8.5</v>
       </c>
-      <c r="AV14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW14" t="n">
+      <c r="AV25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW25" t="n">
         <v>126</v>
       </c>
-      <c r="AX14" t="n">
+      <c r="AX25" t="n">
         <v>5</v>
       </c>
-      <c r="AY14" t="n">
+      <c r="AY25" t="n">
         <v>19</v>
       </c>
-      <c r="AZ14" t="n">
+      <c r="AZ25" t="n">
         <v>29</v>
       </c>
-      <c r="BA14" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB14" t="n">
+      <c r="BA25" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB25" t="n">
         <v>81</v>
       </c>
-      <c r="BC14" t="n">
+      <c r="BC25" t="n">
         <v>251</v>
       </c>
-      <c r="BD14" t="n">
+      <c r="BD25" t="n">
         <v>126</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD25"/>
+  <dimension ref="A1:BD32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="H4" t="n">
         <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="J4" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K4" t="n">
         <v>2.38</v>
       </c>
       <c r="L4" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M4" t="n">
         <v>1.03</v>
@@ -1135,10 +1135,10 @@
         <v>15</v>
       </c>
       <c r="O4" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P4" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q4" t="n">
         <v>1.62</v>
@@ -1162,19 +1162,19 @@
         <v>13</v>
       </c>
       <c r="X4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y4" t="n">
         <v>11</v>
       </c>
       <c r="Z4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC4" t="n">
         <v>15</v>
@@ -1192,16 +1192,16 @@
         <v>101</v>
       </c>
       <c r="AH4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL4" t="n">
         <v>17</v>
@@ -1216,10 +1216,10 @@
         <v>15</v>
       </c>
       <c r="AP4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR4" t="n">
         <v>51</v>
@@ -1240,10 +1240,10 @@
         <v>351</v>
       </c>
       <c r="AX4" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AY4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ4" t="n">
         <v>19</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>EyIxorK5</t>
+          <t>n3qvApVi</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,110 +1456,110 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>DENMARK - 1ST DIVISION</t>
+          <t>CZECH REPUBLIC - CHANCE LIGA</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Hvidovre IF</t>
+          <t>Liberec</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vendsyssel</t>
+          <t>Slovacko</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="H6" t="n">
-        <v>4.1</v>
+        <v>3.25</v>
       </c>
       <c r="I6" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="J6" t="n">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="K6" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L6" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
+        <v>9</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W6" t="n">
+        <v>7</v>
+      </c>
+      <c r="X6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA6" t="n">
         <v>17</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W6" t="n">
+      <c r="AB6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH6" t="n">
         <v>9.5</v>
       </c>
-      <c r="X6" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC6" t="n">
+      <c r="AI6" t="n">
         <v>17</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>23</v>
       </c>
       <c r="AJ6" t="n">
         <v>13</v>
@@ -1571,64 +1571,64 @@
         <v>29</v>
       </c>
       <c r="AM6" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AN6" t="n">
         <v>4</v>
       </c>
       <c r="AO6" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AP6" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AQ6" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AR6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS6" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.5</v>
+        <v>2.62</v>
       </c>
       <c r="AU6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW6" t="n">
-        <v>351</v>
+        <v>81</v>
       </c>
       <c r="AX6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AY6" t="n">
         <v>21</v>
       </c>
       <c r="AZ6" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="BA6" t="n">
         <v>67</v>
       </c>
       <c r="BB6" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BC6" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="BD6" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>46jBOOhN</t>
+          <t>EyIxorK5</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,179 +1638,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ESTONIA - MEISTRILIIGA</t>
+          <t>DENMARK - 1ST DIVISION</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Flora</t>
+          <t>Hvidovre IF</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Kuressaare</t>
+          <t>Vendsyssel</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.26</v>
+        <v>1.75</v>
       </c>
       <c r="H7" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N7" t="n">
+        <v>17</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P7" t="n">
         <v>5</v>
       </c>
-      <c r="I7" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="L7" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N7" t="n">
-        <v>16</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="P7" t="n">
-        <v>5.55</v>
-      </c>
       <c r="Q7" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="R7" t="n">
-        <v>2.73</v>
+        <v>2.35</v>
       </c>
       <c r="S7" t="n">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="T7" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="U7" t="n">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="V7" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="W7" t="n">
-        <v>8.25</v>
+        <v>9.5</v>
       </c>
       <c r="X7" t="n">
-        <v>6.6</v>
+        <v>10</v>
       </c>
       <c r="Y7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU7" t="n">
         <v>7.5</v>
       </c>
-      <c r="Z7" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>45</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>250</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>22</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>175</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>45</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>120</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>7.7</v>
-      </c>
       <c r="AV7" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AW7" t="n">
-        <v>500</v>
+        <v>351</v>
       </c>
       <c r="AX7" t="n">
-        <v>10.25</v>
+        <v>6</v>
       </c>
       <c r="AY7" t="n">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="AZ7" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="BA7" t="n">
-        <v>300</v>
+        <v>67</v>
       </c>
       <c r="BB7" t="n">
-        <v>250</v>
+        <v>67</v>
       </c>
       <c r="BC7" t="n">
-        <v>350</v>
+        <v>126</v>
       </c>
       <c r="BD7" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>r3AbGPNG</t>
+          <t>vuXKltTH</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,179 +1820,179 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>GERMANY - 2. BUNDESLIGA</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Elversberg</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="H8" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I8" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K8" t="n">
         <v>2.2</v>
       </c>
-      <c r="J8" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>2.5</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N8" t="n">
+        <v>10</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T8" t="n">
         <v>2.75</v>
       </c>
-      <c r="M8" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N8" t="n">
-        <v>19</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P8" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T8" t="n">
-        <v>3.75</v>
-      </c>
       <c r="U8" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="V8" t="n">
-        <v>2.75</v>
+        <v>1.91</v>
       </c>
       <c r="W8" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="X8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Z8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA8" t="n">
         <v>34</v>
       </c>
-      <c r="AA8" t="n">
-        <v>21</v>
-      </c>
       <c r="AB8" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AC8" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="AD8" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AF8" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AG8" t="n">
-        <v>81</v>
+        <v>251</v>
       </c>
       <c r="AH8" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AI8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK8" t="n">
         <v>15</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>23</v>
       </c>
       <c r="AL8" t="n">
         <v>15</v>
       </c>
       <c r="AM8" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AN8" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AO8" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AP8" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AQ8" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AR8" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AS8" t="n">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="AU8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>251</v>
+        <v>126</v>
       </c>
       <c r="AX8" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="AY8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ8" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="BA8" t="n">
         <v>34</v>
       </c>
       <c r="BB8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BC8" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BD8" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>UPyjK7Oi</t>
+          <t>l6SV6Nrn</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,77 +2002,77 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>GERMANY - 2. BUNDESLIGA</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Karlsruher SC</t>
+          <t>Coventry</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Hertha Berlin</t>
+          <t>Luton</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="H9" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="I9" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="J9" t="n">
-        <v>2.5</v>
+        <v>2.88</v>
       </c>
       <c r="K9" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L9" t="n">
         <v>3.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="O9" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="P9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.44</v>
+        <v>1.8</v>
       </c>
       <c r="R9" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="S9" t="n">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="T9" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U9" t="n">
-        <v>1.4</v>
+        <v>1.62</v>
       </c>
       <c r="V9" t="n">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="W9" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="X9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y9" t="n">
         <v>9</v>
@@ -2081,100 +2081,100 @@
         <v>21</v>
       </c>
       <c r="AA9" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AB9" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AC9" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AD9" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AE9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>11</v>
       </c>
-      <c r="AF9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>81</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>13</v>
-      </c>
       <c r="AK9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL9" t="n">
         <v>23</v>
       </c>
       <c r="AM9" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO9" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AP9" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AQ9" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AR9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS9" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="AU9" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW9" t="n">
-        <v>251</v>
+        <v>501</v>
       </c>
       <c r="AX9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY9" t="n">
         <v>17</v>
       </c>
       <c r="AZ9" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="BA9" t="n">
         <v>51</v>
       </c>
       <c r="BB9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BC9" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BD9" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>zw7jIog4</t>
+          <t>SK9W2WmS</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,158 +2184,158 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>GERMANY - 2. BUNDESLIGA</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Schalke</t>
+          <t>Watford</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="H10" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
-        <v>2.4</v>
+        <v>2.88</v>
       </c>
       <c r="K10" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N10" t="n">
+        <v>11</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P10" t="n">
         <v>4</v>
       </c>
-      <c r="M10" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N10" t="n">
+      <c r="Q10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W10" t="n">
+        <v>9</v>
+      </c>
+      <c r="X10" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA10" t="n">
         <v>17</v>
       </c>
-      <c r="O10" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P10" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V10" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W10" t="n">
-        <v>10</v>
-      </c>
-      <c r="X10" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>13</v>
-      </c>
       <c r="AB10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC10" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AD10" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE10" t="n">
         <v>12</v>
       </c>
       <c r="AF10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK10" t="n">
         <v>34</v>
       </c>
-      <c r="AG10" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI10" t="n">
+      <c r="AL10" t="n">
         <v>23</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>26</v>
       </c>
       <c r="AM10" t="n">
         <v>29</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AP10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY10" t="n">
         <v>17</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>351</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>19</v>
       </c>
       <c r="AZ10" t="n">
         <v>23</v>
@@ -2347,16 +2347,16 @@
         <v>67</v>
       </c>
       <c r="BC10" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD10" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>M5w5Vo6B</t>
+          <t>berdbPzK</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,98 +2366,98 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>01:50</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>JAPAN - J2 LEAGUE</t>
+          <t>ENGLAND - LEAGUE ONE</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Iwaki</t>
+          <t>Mansfield</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Mito</t>
+          <t>Birmingham</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.15</v>
+        <v>4.75</v>
       </c>
       <c r="H11" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="I11" t="n">
-        <v>3.3</v>
+        <v>1.67</v>
       </c>
       <c r="J11" t="n">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="K11" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L11" t="n">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="M11" t="n">
         <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="O11" t="n">
         <v>1.22</v>
       </c>
       <c r="P11" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="R11" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="S11" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="T11" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U11" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="V11" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W11" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="X11" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="Y11" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="Z11" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="AA11" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AB11" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AC11" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AD11" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF11" t="n">
         <v>41</v>
@@ -2466,79 +2466,79 @@
         <v>201</v>
       </c>
       <c r="AH11" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AI11" t="n">
-        <v>17</v>
+        <v>8.5</v>
       </c>
       <c r="AJ11" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="AK11" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="AL11" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AM11" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AN11" t="n">
-        <v>4.33</v>
+        <v>6.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AP11" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AQ11" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AR11" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS11" t="n">
         <v>151</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="AU11" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV11" t="n">
         <v>51</v>
       </c>
       <c r="AW11" t="n">
-        <v>51</v>
+        <v>501</v>
       </c>
       <c r="AX11" t="n">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="AY11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ11" t="n">
         <v>17</v>
       </c>
-      <c r="AZ11" t="n">
+      <c r="BA11" t="n">
         <v>26</v>
       </c>
-      <c r="BA11" t="n">
-        <v>51</v>
-      </c>
       <c r="BB11" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="BC11" t="n">
+        <v>101</v>
+      </c>
+      <c r="BD11" t="n">
         <v>151</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>0dx9U5LH</t>
+          <t>AmszisTg</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,98 +2548,98 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>JAPAN - J2 LEAGUE</t>
+          <t>ENGLAND - LEAGUE ONE</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Fujieda MYFC</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Chiba</t>
+          <t>Bristol Rovers</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>5.25</v>
+        <v>1.73</v>
       </c>
       <c r="H12" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I12" t="n">
         <v>4.2</v>
       </c>
-      <c r="I12" t="n">
-        <v>1.53</v>
-      </c>
       <c r="J12" t="n">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="K12" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="L12" t="n">
-        <v>2.05</v>
+        <v>4.5</v>
       </c>
       <c r="M12" t="n">
         <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O12" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P12" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R12" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S12" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T12" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U12" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="V12" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W12" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="X12" t="n">
-        <v>29</v>
+        <v>9.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>17</v>
+        <v>8.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="AA12" t="n">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="AB12" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AC12" t="n">
         <v>15</v>
       </c>
       <c r="AD12" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF12" t="n">
         <v>41</v>
@@ -2648,79 +2648,79 @@
         <v>151</v>
       </c>
       <c r="AH12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO12" t="n">
         <v>9</v>
       </c>
-      <c r="AI12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM12" t="n">
+      <c r="AP12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>401</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY12" t="n">
         <v>21</v>
       </c>
-      <c r="AN12" t="n">
-        <v>7</v>
-      </c>
-      <c r="AO12" t="n">
+      <c r="AZ12" t="n">
         <v>26</v>
       </c>
-      <c r="AP12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ12" t="n">
+      <c r="BA12" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB12" t="n">
         <v>81</v>
       </c>
-      <c r="AR12" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS12" t="n">
+      <c r="BC12" t="n">
         <v>151</v>
       </c>
-      <c r="AT12" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>15</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>21</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>41</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>101</v>
-      </c>
       <c r="BD12" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>GIZ5RM3s</t>
+          <t>46jBOOhN</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,170 +2730,170 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LATVIA - VIRSLIGA</t>
+          <t>ESTONIA - MEISTRILIIGA</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Grobina</t>
+          <t>Flora</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>FK Liepaja</t>
+          <t>Kuressaare</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4.55</v>
+        <v>1.24</v>
       </c>
       <c r="H13" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="I13" t="n">
-        <v>1.6</v>
+        <v>9.25</v>
       </c>
       <c r="J13" t="n">
-        <v>4.8</v>
+        <v>1.62</v>
       </c>
       <c r="K13" t="n">
-        <v>2.2</v>
+        <v>2.67</v>
       </c>
       <c r="L13" t="n">
-        <v>2.15</v>
+        <v>7.3</v>
       </c>
       <c r="M13" t="n">
         <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>11.4</v>
+        <v>16</v>
       </c>
       <c r="O13" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S13" t="n">
         <v>1.22</v>
       </c>
-      <c r="P13" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.35</v>
-      </c>
       <c r="T13" t="n">
-        <v>2.94</v>
+        <v>4.17</v>
       </c>
       <c r="U13" t="n">
-        <v>1.82</v>
+        <v>1.94</v>
       </c>
       <c r="V13" t="n">
-        <v>1.94</v>
+        <v>1.81</v>
       </c>
       <c r="W13" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="X13" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>200</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>200</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>28</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>120</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>500</v>
+      </c>
+      <c r="AX13" t="n">
         <v>10.75</v>
       </c>
-      <c r="X13" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA13" t="n">
+      <c r="AY13" t="n">
+        <v>50</v>
+      </c>
+      <c r="AZ13" t="n">
         <v>35</v>
       </c>
-      <c r="AB13" t="n">
-        <v>37</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>400</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>7</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>32</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>150</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>200</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>450</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>75</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>17.5</v>
-      </c>
       <c r="BA13" t="n">
-        <v>25</v>
+        <v>350</v>
       </c>
       <c r="BB13" t="n">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="BC13" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BD13" t="n">
         <v>51</v>
@@ -2902,7 +2902,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AuZ9QtJm</t>
+          <t>jsy6RQ84</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,170 +2912,170 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LATVIA - VIRSLIGA</t>
+          <t>ESTONIA - MEISTRILIIGA</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Valmiera</t>
+          <t>Paide</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Jelgava</t>
+          <t>Tammeka</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.15</v>
+        <v>1.37</v>
       </c>
       <c r="H14" t="n">
-        <v>6.1</v>
+        <v>4.5</v>
       </c>
       <c r="I14" t="n">
-        <v>13.5</v>
+        <v>6.3</v>
       </c>
       <c r="J14" t="n">
-        <v>1.45</v>
+        <v>1.78</v>
       </c>
       <c r="K14" t="n">
-        <v>2.95</v>
+        <v>2.55</v>
       </c>
       <c r="L14" t="n">
-        <v>9.75</v>
+        <v>5.7</v>
       </c>
       <c r="M14" t="n">
         <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="O14" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="P14" t="n">
-        <v>6.5</v>
+        <v>5.1</v>
       </c>
       <c r="Q14" t="n">
         <v>1.52</v>
       </c>
       <c r="R14" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="S14" t="n">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="T14" t="n">
-        <v>4.55</v>
+        <v>3.9</v>
       </c>
       <c r="U14" t="n">
-        <v>1.84</v>
+        <v>1.62</v>
       </c>
       <c r="V14" t="n">
-        <v>1.92</v>
+        <v>2.24</v>
       </c>
       <c r="W14" t="n">
-        <v>9.75</v>
+        <v>8.5</v>
       </c>
       <c r="X14" t="n">
-        <v>6.7</v>
+        <v>7.4</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.5</v>
+        <v>7.2</v>
       </c>
       <c r="Z14" t="n">
-        <v>6.6</v>
+        <v>8.75</v>
       </c>
       <c r="AA14" t="n">
         <v>8.5</v>
       </c>
       <c r="AB14" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>200</v>
+      </c>
+      <c r="AH14" t="n">
         <v>19</v>
       </c>
-      <c r="AC14" t="n">
-        <v>22</v>
-      </c>
-      <c r="AD14" t="n">
+      <c r="AI14" t="n">
+        <v>37</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>45</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>37</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AP14" t="n">
         <v>12.5</v>
       </c>
-      <c r="AE14" t="n">
-        <v>20</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>300</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>45</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>37</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>450</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>150</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>12</v>
-      </c>
       <c r="AQ14" t="n">
-        <v>9.5</v>
+        <v>15.5</v>
       </c>
       <c r="AR14" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AS14" t="n">
         <v>120</v>
       </c>
       <c r="AT14" t="n">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
       <c r="AU14" t="n">
-        <v>8.75</v>
+        <v>7.2</v>
       </c>
       <c r="AV14" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AW14" t="n">
         <v>51</v>
       </c>
       <c r="AX14" t="n">
-        <v>14.5</v>
+        <v>8.25</v>
       </c>
       <c r="AY14" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="AZ14" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="BA14" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="BB14" t="n">
-        <v>400</v>
+        <v>175</v>
       </c>
       <c r="BC14" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="BD14" t="n">
         <v>51</v>
@@ -3084,7 +3084,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>d0ZZLJGq</t>
+          <t>r3AbGPNG</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,179 +3094,179 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>06:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>MALAYSIA - SUPER LEAGUE</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Perak</t>
+          <t>Elversberg</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Terengganu</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="H15" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I15" t="n">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="J15" t="n">
-        <v>4.05</v>
+        <v>3.2</v>
       </c>
       <c r="K15" t="n">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="L15" t="n">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="M15" t="n">
         <v>1.02</v>
       </c>
       <c r="N15" t="n">
+        <v>19</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P15" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T15" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W15" t="n">
+        <v>17</v>
+      </c>
+      <c r="X15" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH15" t="n">
         <v>13</v>
       </c>
-      <c r="O15" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P15" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="T15" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="V15" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="W15" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="X15" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>45</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>37</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>200</v>
-      </c>
-      <c r="AH15" t="n">
+      <c r="AI15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU15" t="n">
         <v>7</v>
       </c>
-      <c r="AI15" t="n">
-        <v>8</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>7</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>20</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>100</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>120</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>6.7</v>
-      </c>
       <c r="AV15" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AW15" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="AX15" t="n">
-        <v>3.85</v>
+        <v>4.75</v>
       </c>
       <c r="AY15" t="n">
-        <v>9.25</v>
+        <v>11</v>
       </c>
       <c r="AZ15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA15" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="BB15" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="BC15" t="n">
-        <v>175</v>
+        <v>81</v>
       </c>
       <c r="BD15" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ShVMjpwA</t>
+          <t>UPyjK7Oi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,179 +3276,179 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Puebla</t>
+          <t>Karlsruher SC</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Guadalajara Chivas</t>
+          <t>Hertha Berlin</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H16" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="I16" t="n">
-        <v>1.95</v>
+        <v>3.3</v>
       </c>
       <c r="J16" t="n">
-        <v>4.33</v>
+        <v>2.5</v>
       </c>
       <c r="K16" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L16" t="n">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N16" t="n">
+        <v>19</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P16" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T16" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W16" t="n">
+        <v>13</v>
+      </c>
+      <c r="X16" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE16" t="n">
         <v>11</v>
       </c>
-      <c r="O16" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P16" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R16" t="n">
-        <v>2</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T16" t="n">
-        <v>3</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V16" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="W16" t="n">
-        <v>12</v>
-      </c>
-      <c r="X16" t="n">
+      <c r="AF16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI16" t="n">
         <v>21</v>
       </c>
-      <c r="Y16" t="n">
+      <c r="AJ16" t="n">
         <v>13</v>
       </c>
-      <c r="Z16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AK16" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AL16" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AM16" t="n">
         <v>23</v>
       </c>
       <c r="AN16" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="AP16" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AQ16" t="n">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="AR16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS16" t="n">
         <v>81</v>
       </c>
-      <c r="AS16" t="n">
-        <v>151</v>
-      </c>
       <c r="AT16" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="AU16" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV16" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW16" t="n">
-        <v>501</v>
+        <v>251</v>
       </c>
       <c r="AX16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AY16" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AZ16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BA16" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="BB16" t="n">
         <v>51</v>
       </c>
       <c r="BC16" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BD16" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>xdMjMez3</t>
+          <t>zw7jIog4</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3458,170 +3458,170 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Penafiel</t>
+          <t>Schalke</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Academico Viseu</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="H17" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="I17" t="n">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="J17" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="K17" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L17" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M17" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N17" t="n">
+        <v>17</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V17" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W17" t="n">
         <v>10</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W17" t="n">
-        <v>8</v>
       </c>
       <c r="X17" t="n">
         <v>11</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB17" t="n">
         <v>21</v>
       </c>
-      <c r="AA17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>29</v>
-      </c>
       <c r="AC17" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AD17" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AE17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ17" t="n">
         <v>13</v>
       </c>
-      <c r="AF17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>12</v>
-      </c>
       <c r="AK17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL17" t="n">
         <v>26</v>
       </c>
       <c r="AM17" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN17" t="n">
         <v>4.33</v>
       </c>
       <c r="AO17" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AP17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>351</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ17" t="n">
         <v>23</v>
       </c>
-      <c r="AQ17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR17" t="n">
+      <c r="BA17" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB17" t="n">
         <v>67</v>
       </c>
-      <c r="AS17" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>26</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>81</v>
-      </c>
       <c r="BC17" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="BD17" t="n">
         <v>81</v>
@@ -3630,7 +3630,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>p4hZVNR1</t>
+          <t>M5w5Vo6B</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3640,59 +3640,59 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>01:50</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>JAPAN - J2 LEAGUE</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>UTA Arad</t>
+          <t>Iwaki</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Gloria Buzau</t>
+          <t>Mito</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.83</v>
+        <v>2.15</v>
       </c>
       <c r="H18" t="n">
         <v>3.3</v>
       </c>
       <c r="I18" t="n">
-        <v>4.33</v>
+        <v>3.3</v>
       </c>
       <c r="J18" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="K18" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L18" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M18" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O18" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="P18" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="R18" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S18" t="n">
         <v>1.4</v>
@@ -3701,73 +3701,73 @@
         <v>2.75</v>
       </c>
       <c r="U18" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="V18" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W18" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="X18" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="Y18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z18" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AA18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB18" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD18" t="n">
         <v>6.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF18" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG18" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AH18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>12</v>
       </c>
-      <c r="AI18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>15</v>
-      </c>
       <c r="AK18" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM18" t="n">
         <v>34</v>
       </c>
-      <c r="AM18" t="n">
-        <v>41</v>
-      </c>
       <c r="AN18" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="AO18" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AP18" t="n">
         <v>21</v>
       </c>
       <c r="AQ18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR18" t="n">
         <v>51</v>
@@ -3779,7 +3779,7 @@
         <v>2.75</v>
       </c>
       <c r="AU18" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV18" t="n">
         <v>51</v>
@@ -3788,22 +3788,22 @@
         <v>51</v>
       </c>
       <c r="AX18" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AY18" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AZ18" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA18" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB18" t="n">
         <v>81</v>
       </c>
-      <c r="BB18" t="n">
-        <v>101</v>
-      </c>
       <c r="BC18" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="BD18" t="n">
         <v>51</v>
@@ -3812,7 +3812,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>vyBY8xUN</t>
+          <t>0dx9U5LH</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3827,165 +3827,165 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>SOUTH KOREA - K LEAGUE 1</t>
+          <t>JAPAN - J2 LEAGUE</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Gangwon</t>
+          <t>Fujieda MYFC</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Gimcheon Sangmu</t>
+          <t>Chiba</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="H19" t="n">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="I19" t="n">
-        <v>3.1</v>
+        <v>1.53</v>
       </c>
       <c r="J19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K19" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N19" t="n">
+        <v>17</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="V19" t="n">
         <v>2.1</v>
       </c>
-      <c r="L19" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N19" t="n">
-        <v>11</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P19" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="V19" t="n">
-        <v>2</v>
-      </c>
       <c r="W19" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="X19" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.5</v>
+        <v>17</v>
       </c>
       <c r="Z19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM19" t="n">
         <v>21</v>
       </c>
-      <c r="AA19" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB19" t="n">
+      <c r="AN19" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO19" t="n">
         <v>26</v>
       </c>
-      <c r="AC19" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>13</v>
-      </c>
       <c r="AP19" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AQ19" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AR19" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS19" t="n">
         <v>151</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU19" t="n">
         <v>8</v>
       </c>
       <c r="AV19" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW19" t="n">
-        <v>501</v>
+        <v>51</v>
       </c>
       <c r="AX19" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="AY19" t="n">
-        <v>17</v>
+        <v>7.5</v>
       </c>
       <c r="AZ19" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="BA19" t="n">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="BB19" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="BC19" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="BD19" t="n">
         <v>51</v>
@@ -3994,7 +3994,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>86Td3Gio</t>
+          <t>GIZ5RM3s</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4004,170 +4004,170 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>04:30</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>SOUTH KOREA - K LEAGUE 1</t>
+          <t>LATVIA - VIRSLIGA</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Suwon FC</t>
+          <t>Grobina</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Seoul</t>
+          <t>FK Liepaja</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="H20" t="n">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="I20" t="n">
-        <v>2.15</v>
+        <v>1.53</v>
       </c>
       <c r="J20" t="n">
-        <v>3.75</v>
+        <v>5.1</v>
       </c>
       <c r="K20" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L20" t="n">
-        <v>2.88</v>
+        <v>2.05</v>
       </c>
       <c r="M20" t="n">
-        <v>1.06</v>
+        <v>10.9</v>
       </c>
       <c r="N20" t="n">
-        <v>10</v>
+        <v>1.02</v>
       </c>
       <c r="O20" t="n">
-        <v>1.3</v>
+        <v>1.21</v>
       </c>
       <c r="P20" t="n">
-        <v>3.4</v>
+        <v>3.44</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.05</v>
+        <v>1.72</v>
       </c>
       <c r="R20" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="S20" t="n">
-        <v>1.44</v>
+        <v>1.34</v>
       </c>
       <c r="T20" t="n">
-        <v>2.63</v>
+        <v>2.99</v>
       </c>
       <c r="U20" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V20" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="W20" t="n">
-        <v>10</v>
+        <v>11.75</v>
       </c>
       <c r="X20" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>400</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>35</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>175</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>200</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>450</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>75</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AZ20" t="n">
         <v>17</v>
       </c>
-      <c r="Y20" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>501</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>23</v>
-      </c>
       <c r="BA20" t="n">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="BB20" t="n">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="BC20" t="n">
-        <v>151</v>
+        <v>250</v>
       </c>
       <c r="BD20" t="n">
         <v>51</v>
@@ -4176,7 +4176,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Uej02OZG</t>
+          <t>AuZ9QtJm</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4191,174 +4191,174 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>SWEDEN - SUPERETTAN</t>
+          <t>LATVIA - VIRSLIGA</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Landskrona</t>
+          <t>Valmiera</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Brage</t>
+          <t>Jelgava</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.05</v>
+        <v>1.15</v>
       </c>
       <c r="H21" t="n">
-        <v>3.5</v>
+        <v>6.1</v>
       </c>
       <c r="I21" t="n">
-        <v>3.5</v>
+        <v>13.5</v>
       </c>
       <c r="J21" t="n">
-        <v>2.63</v>
+        <v>1.45</v>
       </c>
       <c r="K21" t="n">
-        <v>2.3</v>
+        <v>2.95</v>
       </c>
       <c r="L21" t="n">
-        <v>3.75</v>
+        <v>9.75</v>
       </c>
       <c r="M21" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="O21" t="n">
-        <v>1.15</v>
+        <v>1.04</v>
       </c>
       <c r="P21" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.62</v>
+        <v>1.52</v>
       </c>
       <c r="R21" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="S21" t="n">
-        <v>1.3</v>
+        <v>1.16</v>
       </c>
       <c r="T21" t="n">
-        <v>3.4</v>
+        <v>4.55</v>
       </c>
       <c r="U21" t="n">
-        <v>1.57</v>
+        <v>1.84</v>
       </c>
       <c r="V21" t="n">
-        <v>2.25</v>
+        <v>1.92</v>
       </c>
       <c r="W21" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="X21" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>22</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>45</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>37</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>450</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AQ21" t="n">
         <v>9.5</v>
       </c>
-      <c r="X21" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>34</v>
-      </c>
       <c r="AR21" t="n">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="AS21" t="n">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="AT21" t="n">
-        <v>3.4</v>
+        <v>4.4</v>
       </c>
       <c r="AU21" t="n">
-        <v>7.5</v>
+        <v>8.75</v>
       </c>
       <c r="AV21" t="n">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="AW21" t="n">
-        <v>401</v>
+        <v>51</v>
       </c>
       <c r="AX21" t="n">
-        <v>5.5</v>
+        <v>14.5</v>
       </c>
       <c r="AY21" t="n">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="AZ21" t="n">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="BA21" t="n">
-        <v>51</v>
+        <v>400</v>
       </c>
       <c r="BB21" t="n">
-        <v>67</v>
+        <v>400</v>
       </c>
       <c r="BC21" t="n">
-        <v>126</v>
+        <v>450</v>
       </c>
       <c r="BD21" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>drENJP4i</t>
+          <t>d0ZZLJGq</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4368,179 +4368,179 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>SWEDEN - SUPERETTAN</t>
+          <t>MALAYSIA - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Sandviken</t>
+          <t>Perak</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Helsingborg</t>
+          <t>Terengganu</t>
         </is>
       </c>
       <c r="G22" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="J22" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N22" t="n">
+        <v>13</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q22" t="n">
         <v>1.7</v>
       </c>
-      <c r="H22" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I22" t="n">
-        <v>4</v>
-      </c>
-      <c r="J22" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K22" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L22" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N22" t="n">
-        <v>19</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P22" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.53</v>
-      </c>
       <c r="R22" t="n">
-        <v>2.4</v>
+        <v>1.93</v>
       </c>
       <c r="S22" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="T22" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U22" t="n">
-        <v>1.62</v>
+        <v>1.68</v>
       </c>
       <c r="V22" t="n">
-        <v>2.2</v>
+        <v>2.11</v>
       </c>
       <c r="W22" t="n">
-        <v>9.5</v>
+        <v>10.75</v>
       </c>
       <c r="X22" t="n">
-        <v>9.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>8.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="AA22" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="AB22" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AC22" t="n">
-        <v>19</v>
+        <v>11.25</v>
       </c>
       <c r="AD22" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AE22" t="n">
-        <v>15</v>
+        <v>10.75</v>
       </c>
       <c r="AF22" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AG22" t="n">
-        <v>151</v>
+        <v>200</v>
       </c>
       <c r="AH22" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="AI22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AP22" t="n">
         <v>23</v>
       </c>
-      <c r="AJ22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>15</v>
-      </c>
       <c r="AQ22" t="n">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="AR22" t="n">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="AS22" t="n">
-        <v>81</v>
+        <v>250</v>
       </c>
       <c r="AT22" t="n">
-        <v>3.5</v>
+        <v>2.95</v>
       </c>
       <c r="AU22" t="n">
-        <v>7.5</v>
+        <v>6.7</v>
       </c>
       <c r="AV22" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AW22" t="n">
-        <v>401</v>
+        <v>51</v>
       </c>
       <c r="AX22" t="n">
-        <v>6.5</v>
+        <v>3.85</v>
       </c>
       <c r="AY22" t="n">
-        <v>21</v>
+        <v>9.25</v>
       </c>
       <c r="AZ22" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="BA22" t="n">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="BB22" t="n">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="BC22" t="n">
-        <v>126</v>
+        <v>175</v>
       </c>
       <c r="BD22" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>tzWzdMCp</t>
+          <t>ShVMjpwA</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4550,59 +4550,59 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>SWEDEN - SUPERETTAN</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Utsikten</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Ostersund</t>
+          <t>Guadalajara Chivas</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.63</v>
+        <v>4</v>
       </c>
       <c r="H23" t="n">
         <v>3.4</v>
       </c>
       <c r="I23" t="n">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="J23" t="n">
-        <v>3.2</v>
+        <v>4.33</v>
       </c>
       <c r="K23" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L23" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="M23" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N23" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O23" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P23" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="R23" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S23" t="n">
         <v>1.36</v>
@@ -4611,79 +4611,79 @@
         <v>3</v>
       </c>
       <c r="U23" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="V23" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="W23" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="X23" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="Y23" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Z23" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AA23" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AB23" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AC23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD23" t="n">
         <v>6.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF23" t="n">
         <v>41</v>
       </c>
       <c r="AG23" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS23" t="n">
         <v>151</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>126</v>
       </c>
       <c r="AT23" t="n">
         <v>3</v>
@@ -4698,16 +4698,16 @@
         <v>501</v>
       </c>
       <c r="AX23" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="AY23" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AZ23" t="n">
         <v>21</v>
       </c>
       <c r="BA23" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BB23" t="n">
         <v>51</v>
@@ -4722,7 +4722,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>zocXixyg</t>
+          <t>xdMjMez3</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4732,152 +4732,152 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Penafiel</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Kayserispor</t>
+          <t>Academico Viseu</t>
         </is>
       </c>
       <c r="G24" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L24" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N24" t="n">
+        <v>9</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="n">
         <v>2.2</v>
       </c>
-      <c r="H24" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I24" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K24" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L24" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N24" t="n">
-        <v>13</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P24" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.73</v>
-      </c>
       <c r="R24" t="n">
-        <v>2.08</v>
+        <v>1.65</v>
       </c>
       <c r="S24" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="T24" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="U24" t="n">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="V24" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="W24" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="X24" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ24" t="n">
         <v>12</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>11</v>
       </c>
       <c r="AK24" t="n">
         <v>34</v>
       </c>
       <c r="AL24" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM24" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AN24" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP24" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AQ24" t="n">
         <v>41</v>
       </c>
       <c r="AR24" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS24" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="AT24" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="AU24" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV24" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW24" t="n">
-        <v>251</v>
+        <v>81</v>
       </c>
       <c r="AX24" t="n">
         <v>5</v>
@@ -4886,25 +4886,25 @@
         <v>17</v>
       </c>
       <c r="AZ24" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="BA24" t="n">
         <v>51</v>
       </c>
       <c r="BB24" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BC24" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD24" t="n">
-        <v>301</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>8p07HlDr</t>
+          <t>p4hZVNR1</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4919,138 +4919,138 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Corum</t>
+          <t>UTA Arad</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Genclerbirligi</t>
+          <t>Gloria Buzau</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="H25" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>4.33</v>
       </c>
       <c r="J25" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="K25" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L25" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N25" t="n">
+        <v>10</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q25" t="n">
         <v>2.05</v>
       </c>
-      <c r="L25" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N25" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P25" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2.2</v>
-      </c>
       <c r="R25" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="S25" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T25" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U25" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V25" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W25" t="n">
         <v>7</v>
       </c>
       <c r="X25" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z25" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AA25" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AB25" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC25" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD25" t="n">
         <v>6.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF25" t="n">
         <v>51</v>
       </c>
       <c r="AG25" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH25" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AI25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ25" t="n">
         <v>15</v>
       </c>
-      <c r="AJ25" t="n">
-        <v>12</v>
-      </c>
       <c r="AK25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL25" t="n">
         <v>34</v>
       </c>
-      <c r="AL25" t="n">
-        <v>29</v>
-      </c>
       <c r="AM25" t="n">
         <v>41</v>
       </c>
       <c r="AN25" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="AO25" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AP25" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AQ25" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR25" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS25" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU25" t="n">
         <v>8.5</v>
@@ -5059,27 +5059,1301 @@
         <v>51</v>
       </c>
       <c r="AW25" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="AX25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY25" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AZ25" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA25" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB25" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC25" t="n">
         <v>251</v>
       </c>
       <c r="BD25" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>vyBY8xUN</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>26/10/2024</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>SOUTH KOREA - K LEAGUE 1</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Gangwon</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Gimcheon Sangmu</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L26" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N26" t="n">
+        <v>11</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="V26" t="n">
+        <v>2</v>
+      </c>
+      <c r="W26" t="n">
+        <v>8</v>
+      </c>
+      <c r="X26" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>86Td3Gio</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>26/10/2024</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>04:30</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>SOUTH KOREA - K LEAGUE 1</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Suwon FC</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Seoul</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L27" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N27" t="n">
+        <v>10</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T27" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W27" t="n">
+        <v>10</v>
+      </c>
+      <c r="X27" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Uej02OZG</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>26/10/2024</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>SWEDEN - SUPERETTAN</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Landskrona</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Brage</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>2</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L28" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N28" t="n">
+        <v>15</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T28" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V28" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W28" t="n">
+        <v>10</v>
+      </c>
+      <c r="X28" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>351</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>drENJP4i</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>26/10/2024</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>SWEDEN - SUPERETTAN</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Sandviken</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Helsingborg</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H29" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I29" t="n">
+        <v>4</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L29" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N29" t="n">
+        <v>19</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T29" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V29" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W29" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X29" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>401</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>tzWzdMCp</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>26/10/2024</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>SWEDEN - SUPERETTAN</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Utsikten</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Ostersund</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L30" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N30" t="n">
+        <v>13</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R30" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T30" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V30" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W30" t="n">
+        <v>11</v>
+      </c>
+      <c r="X30" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>zocXixyg</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>26/10/2024</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>TURKEY - SUPER LIG</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Hatayspor</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Kayserispor</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L31" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N31" t="n">
+        <v>11</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T31" t="n">
+        <v>3</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V31" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W31" t="n">
+        <v>9</v>
+      </c>
+      <c r="X31" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>251</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>8p07HlDr</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>26/10/2024</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Corum</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Genclerbirligi</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I32" t="n">
+        <v>3</v>
+      </c>
+      <c r="J32" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L32" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N32" t="n">
+        <v>9</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T32" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W32" t="n">
+        <v>7</v>
+      </c>
+      <c r="X32" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD32" t="n">
         <v>126</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-26.xlsx
@@ -25480,7 +25480,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -25499,22 +25499,22 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="H138" t="n">
         <v>3.3</v>
       </c>
       <c r="I138" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="J138" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K138" t="n">
         <v>2.05</v>
       </c>
       <c r="L138" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M138" t="n">
         <v>1.07</v>
@@ -25541,28 +25541,28 @@
         <v>2.63</v>
       </c>
       <c r="U138" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V138" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W138" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X138" t="n">
         <v>15</v>
       </c>
       <c r="Y138" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z138" t="n">
         <v>34</v>
       </c>
       <c r="AA138" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB138" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC138" t="n">
         <v>8.5</v>
@@ -25577,22 +25577,22 @@
         <v>51</v>
       </c>
       <c r="AG138" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH138" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI138" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ138" t="n">
         <v>9.5</v>
       </c>
       <c r="AK138" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL138" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM138" t="n">
         <v>34</v>
@@ -25601,13 +25601,13 @@
         <v>5</v>
       </c>
       <c r="AO138" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP138" t="n">
         <v>29</v>
       </c>
       <c r="AQ138" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR138" t="n">
         <v>81</v>
@@ -25634,7 +25634,7 @@
         <v>13</v>
       </c>
       <c r="AZ138" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BA138" t="n">
         <v>41</v>
@@ -25662,7 +25662,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>23:06</t>
+          <t>21:06</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -25699,10 +25699,10 @@
         <v>3.05</v>
       </c>
       <c r="M139" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N139" t="n">
-        <v>8.1</v>
+        <v>9</v>
       </c>
       <c r="O139" t="n">
         <v>1.3</v>
@@ -28756,7 +28756,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>23:30</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -41515,127 +41515,127 @@
         </is>
       </c>
       <c r="G226" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H226" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I226" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="J226" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="K226" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="L226" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M226" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N226" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="O226" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P226" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q226" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R226" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S226" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T226" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="U226" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V226" t="n">
         <v>2.25</v>
       </c>
-      <c r="H226" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I226" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="J226" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="K226" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L226" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="M226" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N226" t="n">
-        <v>8</v>
-      </c>
-      <c r="O226" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P226" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="Q226" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R226" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="S226" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="T226" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="U226" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="V226" t="n">
-        <v>2.18</v>
-      </c>
       <c r="W226" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X226" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y226" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="Z226" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AA226" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AB226" t="n">
         <v>23</v>
       </c>
       <c r="AC226" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AD226" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AE226" t="n">
         <v>12.5</v>
       </c>
       <c r="AF226" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AG226" t="n">
         <v>300</v>
       </c>
       <c r="AH226" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AI226" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AJ226" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AK226" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL226" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AM226" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AN226" t="n">
-        <v>4.35</v>
+        <v>4.45</v>
       </c>
       <c r="AO226" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AP226" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AQ226" t="n">
         <v>45</v>
       </c>
       <c r="AR226" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AS226" t="n">
         <v>200</v>
       </c>
       <c r="AT226" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="AU226" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AV226" t="n">
         <v>50</v>
@@ -41644,22 +41644,22 @@
         <v>51</v>
       </c>
       <c r="AX226" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="AY226" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ226" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="BA226" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="BB226" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BC226" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BD226" t="n">
         <v>51</v>
@@ -41697,22 +41697,22 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>2.22</v>
+        <v>1.98</v>
       </c>
       <c r="H227" t="n">
         <v>3.55</v>
       </c>
       <c r="I227" t="n">
-        <v>2.72</v>
+        <v>3.2</v>
       </c>
       <c r="J227" t="n">
-        <v>2.82</v>
+        <v>2.57</v>
       </c>
       <c r="K227" t="n">
         <v>2.22</v>
       </c>
       <c r="L227" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="M227" t="n">
         <v>1.05</v>
@@ -41724,7 +41724,7 @@
         <v>1.25</v>
       </c>
       <c r="P227" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="Q227" t="n">
         <v>1.75</v>
@@ -41733,7 +41733,7 @@
         <v>2</v>
       </c>
       <c r="S227" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="T227" t="n">
         <v>2.92</v>
@@ -41745,28 +41745,28 @@
         <v>2.1</v>
       </c>
       <c r="W227" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X227" t="n">
-        <v>11.75</v>
+        <v>10.25</v>
       </c>
       <c r="Y227" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z227" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AA227" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB227" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC227" t="n">
         <v>8</v>
       </c>
       <c r="AD227" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AE227" t="n">
         <v>13.5</v>
@@ -41775,73 +41775,73 @@
         <v>55</v>
       </c>
       <c r="AG227" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AH227" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AI227" t="n">
+        <v>18</v>
+      </c>
+      <c r="AJ227" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AK227" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL227" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM227" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN227" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO227" t="n">
         <v>10</v>
       </c>
-      <c r="AI227" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ227" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AK227" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL227" t="n">
-        <v>22</v>
-      </c>
-      <c r="AM227" t="n">
-        <v>28</v>
-      </c>
-      <c r="AN227" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AO227" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AP227" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ227" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AR227" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AS227" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT227" t="n">
         <v>2.92</v>
       </c>
       <c r="AU227" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AV227" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AW227" t="n">
         <v>51</v>
       </c>
       <c r="AX227" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="AY227" t="n">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="AZ227" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA227" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="BB227" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="BC227" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BD227" t="n">
         <v>51</v>
@@ -41882,16 +41882,16 @@
         <v>1.72</v>
       </c>
       <c r="H228" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="I228" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="J228" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="K228" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="L228" t="n">
         <v>4.45</v>
@@ -41900,58 +41900,58 @@
         <v>1.05</v>
       </c>
       <c r="N228" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="O228" t="n">
         <v>1.25</v>
       </c>
       <c r="P228" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="Q228" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="R228" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S228" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="T228" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="U228" t="n">
         <v>1.72</v>
       </c>
       <c r="V228" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="W228" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X228" t="n">
         <v>8.5</v>
       </c>
       <c r="Y228" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="Z228" t="n">
         <v>14</v>
       </c>
       <c r="AA228" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AB228" t="n">
         <v>24</v>
       </c>
       <c r="AC228" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AD228" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="AE228" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AF228" t="n">
         <v>60</v>
@@ -41963,7 +41963,7 @@
         <v>13</v>
       </c>
       <c r="AI228" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ228" t="n">
         <v>13.5</v>
@@ -41978,31 +41978,31 @@
         <v>40</v>
       </c>
       <c r="AN228" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="AO228" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AP228" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AQ228" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AR228" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AS228" t="n">
         <v>200</v>
       </c>
       <c r="AT228" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="AU228" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AV228" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AW228" t="n">
         <v>51</v>
